--- a/eg-pos-mortem/templates/MPUL-Template.xlsx
+++ b/eg-pos-mortem/templates/MPUL-Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="10584" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial_de_Versiones" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="145">
   <si>
     <t>Autor</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Nombre de Comercio o Entidad Adquirente</t>
   </si>
   <si>
-    <t>Resultado Esperado</t>
-  </si>
-  <si>
     <t>Ambiente de Ejecucion</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Resultado Real</t>
   </si>
   <si>
     <r>
@@ -184,83 +178,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>[ SI / NO]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Condiciones Especiales
-Txn de Requerimiento hacia Emisor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Envio DE# : [Valor del Campo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Condiciones Especiales 
-Txn de Respuesta del Emisor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Envio DE# : [Valor del Campo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Condiciones Especiales 
-Txn de Respuesta hacia Adquirente
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Envio DE# : [Valor del Campo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Grabó en Base de Datos
-Tabla: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Transaction Log
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[ SI / NO]</t>
     </r>
   </si>
   <si>
@@ -403,22 +320,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">¿Se Aprobará la transaccion?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[ SI / NO ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Tipo Operativa
 </t>
     </r>
@@ -463,21 +364,6 @@
       </rPr>
       <t xml:space="preserve">
 [ SI / NO ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">¿Se Aprobó la transaccion?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ SI / NO ]</t>
     </r>
   </si>
   <si>
@@ -582,8 +468,509 @@
     </r>
   </si>
   <si>
+    <t>Marzo 2022</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKIN_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKOUT_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_COMPRA_INTERRED.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_2.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_3.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_4.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_5.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_REVERSO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO_DE04_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO_TRANTYPE81.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_INTERRED_C4_4_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_INTERRED_C4_4_1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_C.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_ENROLAMIENTO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_MC.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_RECURRENTE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_SUBSECUENTE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS1_F112.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS2.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_INTERRED.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM05_PROMO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM05.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM07.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_DEVOLUCION_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_RECURRENTE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_ECI5_3DS1_F112.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM05.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM07.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_100100.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM051_MPOS_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM051_MPOS_1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM053_MPOS_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM901_MPOS_0.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_CHECKIN_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_CHECKOUT_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO_TRANTYPE81_PJ_EC_DE25_08.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO_TRANTYPE81_PJ_EC_DE25_59.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_RECURRENTE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_SUBSECUENTE_ECOM_ECI7.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_SUBSECUENTE.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_ECI5_3DS2.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05_PROMO_DECLINA.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05_PROMO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM07.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_DEVOLUCION_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REAUTORIZACION_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_ECI5_3DS1.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM05.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM07.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_SIMULADOR_100100.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_OPAY-EMI_VISA_SIMULADOR_RECARGA.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_CANCELACION_PEM90_RC_DECLINA.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_CANCELACION_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_COMPRA_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM9_RC_TIMEOUT.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90_RC_DECLINA.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90_RC_INDALIDO.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_REVERSO_DEVOLUCION_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_MC_REVERSO_PEM90.uc</t>
+  </si>
+  <si>
+    <t>BBVAPE-ADQ_TPV-EMI_VISA_COMPRA_PEM90.uc</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Validacion de Flujo</t>
+  </si>
+  <si>
+    <t>Interredes</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Observaciones de Consideraciones Extra
+      <t xml:space="preserve">¿Fluirá al Risk Center?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condiciones Especiales 
+Txn de Requerimiento a RiskCenter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Envio DE# : [Valor del Campo] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Fluyó al RiskCenter?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grabó en Base de Datos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabla: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transaction Log</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[ SI / NO]</t>
+    </r>
+  </si>
+  <si>
+    <t>¿Se Aprobará la transaccion?
+[ SI / NO ]2</t>
+  </si>
+  <si>
+    <t>¿Se Aprobó la transaccion?
+[ SI / NO ]3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Emisor Aprobará la transaccion?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Emisor Aprobó la transaccion?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Condiciones Especiales
+Txn de Requerimiento hacia Emisor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Envio DE# : [Valor del Campo] </t>
+    </r>
+  </si>
+  <si>
+    <t>[Igual][acq.req.63.PJ][MR]
+[Igual][acq.req.mti][0200]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Condiciones Especiales 
+Txn de Respuesta del Emisor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Envio DE# : [Valor del Campo] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Condiciones Especiales 
+Txn de Respuesta hacia Adquirente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rsultado Condiciones Especiales 
+Txn de Respuesta del RiskCenter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condiciones Especiales 
+Txn de Guardado en Desc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Condiciones Especiales 
+Txn de Guardado en Desc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condiciones Especiales 
+Txn de Respuesta del RiskCenter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Condiciones Especiales 
+Txn de Requerimiento a RiskCenter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envio DE# : [Valor del Campo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resultado Conideraciones Extra a Revisar en la Prueba
 </t>
     </r>
     <r>
@@ -595,259 +982,20 @@
       </rPr>
       <t>CONSIDERACION</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - RESULTADO [SI/NO]</t>
-    </r>
-  </si>
-  <si>
-    <t>Marzo 2022</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKIN_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKOUT_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_COMPRA_INTERRED.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_2.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_3.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_4.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_5.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_REVERSO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO_DE04_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO_TRANTYPE81.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ENROLAMIENTO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_INTERRED_C4_4_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_INTERRED_C4_4_1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_C.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_ENROLAMIENTO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_MOTO_MC.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_RECURRENTE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_SUBSECUENTE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS1_F112.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_ECI5_3DS2.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_INTERRED.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM05_PROMO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM05.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM07.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COMPRA_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_DEVOLUCION_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_RECURRENTE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_ECI5_3DS1_F112.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM05.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM07.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_REVERSO_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_100100.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM051_MPOS_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM051_MPOS_1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM053_MPOS_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_SIMULADOR_PEM901_MPOS_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_CHECKIN_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_CHECKOUT_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO_TRANTYPE81_PJ_EC_DE25_08.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO_TRANTYPE81_PJ_EC_DE25_59.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_ENROLAMIENTO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_RECURRENTE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_SUBSECUENTE_ECOM_ECI7.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COF_SUBSECUENTE.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_ECI5_3DS2.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05_PROMO_DECLINA.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05_PROMO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM05.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM07.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_COMPRA_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_DEVOLUCION_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REAUTORIZACION_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM05.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM07.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_REVERSO_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_SIMULADOR_100100.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_VISA_SIMULADOR_RECARGA.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_CANCELACION_PEM90_RC_DECLINA.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_CANCELACION_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_COMPRA_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM9_RC_TIMEOUT.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90_RC_DECLINA.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90_RC_INDALIDO.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_DEVOLUCION_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_REVERSO_DEVOLUCION_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_MC_REVERSO_PEM90.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_TPV-EMI_VISA_COMPRA_PEM90.uc</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Validacion de Flujo</t>
-  </si>
-  <si>
-    <t>Interredes</t>
-  </si>
-  <si>
-    <t>SI</t>
+  </si>
+  <si>
+    <t>[Igual][acq.req.63.PJ][MR]
+[Igual][acq.req.3.substring(0,4)][0000]</t>
+  </si>
+  <si>
+    <t>COF000000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1168,13 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1582,7 +1737,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1715,8 +1870,20 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1790,6 +1957,36 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1799,6 +1996,33 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1878,63 +2102,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1942,7 +2109,248 @@
     <cellStyle name="Estilo 1" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2640,6 +3048,162 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
@@ -2860,6 +3424,7 @@
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFCFDFE"/>
     </mruColors>
@@ -2990,50 +3555,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TablaHistorial" displayName="TablaHistorial" ref="C19:F23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TablaHistorial" displayName="TablaHistorial" ref="C19:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="C19:F23"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Fecha" dataDxfId="35"/>
-    <tableColumn id="3" name="Versión" dataDxfId="34"/>
-    <tableColumn id="4" name="Descripción" dataDxfId="33"/>
-    <tableColumn id="7" name="Autor" dataDxfId="32"/>
+    <tableColumn id="1" name="Fecha" dataDxfId="58"/>
+    <tableColumn id="3" name="Versión" dataDxfId="57"/>
+    <tableColumn id="4" name="Descripción" dataDxfId="56"/>
+    <tableColumn id="7" name="Autor" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="C17:AD118" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="C17:AD118"/>
-  <tableColumns count="28">
-    <tableColumn id="1" name="ID Caso" dataDxfId="25"/>
-    <tableColumn id="7" name="Descripcion del Caso" dataDxfId="24"/>
-    <tableColumn id="28" name="Nombre Archivo SIM_QUEUE /FIMET" dataDxfId="23"/>
-    <tableColumn id="2" name="Tipo de Prueba_x000a__x000a_[ Validacion de Flujo / No Afectacion / Excepcion Flujo]" dataDxfId="22"/>
-    <tableColumn id="3" name="Tipo Operativa_x000a__x000a_[ Interredes / TPVs / Camara / Corresponsal / Banco / CEL ]" dataDxfId="21"/>
-    <tableColumn id="4" name="Nombre de Comercio o Entidad Adquirente" dataDxfId="20"/>
-    <tableColumn id="5" name="Nombre de Entidad o Institucion Financiera" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="C17:AN118" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="C17:AN118"/>
+  <tableColumns count="38">
+    <tableColumn id="1" name="ID Caso" dataDxfId="35"/>
+    <tableColumn id="7" name="Descripcion del Caso" dataDxfId="34"/>
+    <tableColumn id="28" name="Nombre Archivo SIM_QUEUE /FIMET" dataDxfId="33"/>
+    <tableColumn id="2" name="Tipo de Prueba_x000a__x000a_[ Validacion de Flujo / No Afectacion / Excepcion Flujo]" dataDxfId="32"/>
+    <tableColumn id="3" name="Tipo Operativa_x000a__x000a_[ Interredes / TPVs / Camara / Corresponsal / Banco / CEL ]" dataDxfId="31"/>
+    <tableColumn id="4" name="Nombre de Comercio o Entidad Adquirente" dataDxfId="30"/>
+    <tableColumn id="5" name="Nombre de Entidad o Institucion Financiera" dataDxfId="29"/>
     <tableColumn id="6" name="Tipo de Transaccion"/>
     <tableColumn id="8" name="Condiciones de Txn de Requerimiento Adquirente_x000a__x000a_DE# : [Valor del Campo]"/>
-    <tableColumn id="9" name="¿Fluirá al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="18"/>
-    <tableColumn id="10" name="¿Se Aprobará la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="17"/>
-    <tableColumn id="11" name="Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="16"/>
-    <tableColumn id="12" name="Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="15"/>
-    <tableColumn id="13" name="Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="14"/>
-    <tableColumn id="14" name="Grabará en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="13"/>
-    <tableColumn id="15" name="Grabará el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO]" dataDxfId="12"/>
-    <tableColumn id="30" name="Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="11"/>
-    <tableColumn id="16" name="Timestamp" dataDxfId="10"/>
-    <tableColumn id="24" name="Tarjeta" dataDxfId="9"/>
-    <tableColumn id="17" name="¿Fluyó al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="8"/>
-    <tableColumn id="23" name="¿Se Aprobó la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="7"/>
-    <tableColumn id="18" name="Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="6"/>
-    <tableColumn id="19" name="Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="5"/>
-    <tableColumn id="20" name="Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="4"/>
-    <tableColumn id="21" name="Grabó en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="3"/>
-    <tableColumn id="22" name="Grabó el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO ]" dataDxfId="2"/>
-    <tableColumn id="31" name="Observaciones de Consideraciones Extra_x000a__x000a_CONSIDERACION - RESULTADO [SI/NO]" dataDxfId="1"/>
-    <tableColumn id="25" name="Dictamen del Caso de Prueba_x000a__x000a_[ EXITOSO / FALLIDO ]" dataDxfId="0"/>
+    <tableColumn id="53" name="Timestamp" dataDxfId="28"/>
+    <tableColumn id="52" name="Tarjeta" dataDxfId="27"/>
+    <tableColumn id="40" name="Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="26"/>
+    <tableColumn id="11" name="Resultado Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="25"/>
+    <tableColumn id="38" name="Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="24"/>
+    <tableColumn id="12" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="23"/>
+    <tableColumn id="43" name="Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="22"/>
+    <tableColumn id="13" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="21"/>
+    <tableColumn id="44" name="Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="20"/>
+    <tableColumn id="16" name="Resultado Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="19"/>
+    <tableColumn id="56" name="Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="18"/>
+    <tableColumn id="17" name="Rsultado Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="17"/>
+    <tableColumn id="47" name="Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="16"/>
+    <tableColumn id="18" name="Resultado Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="15"/>
+    <tableColumn id="49" name="Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="14"/>
+    <tableColumn id="19" name="Resultado Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="13"/>
+    <tableColumn id="9" name="¿Fluirá al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="12"/>
+    <tableColumn id="35" name="¿Fluyó al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="11"/>
+    <tableColumn id="32" name="¿Fluirá al Risk Center?_x000a__x000a_[ SI / NO ]" dataDxfId="10"/>
+    <tableColumn id="36" name="¿Fluyó al RiskCenter?_x000a__x000a_[ SI / NO ]" dataDxfId="9"/>
+    <tableColumn id="55" name="¿Emisor Aprobará la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="8"/>
+    <tableColumn id="54" name="¿Emisor Aprobó la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="7"/>
+    <tableColumn id="10" name="¿Se Aprobará la transaccion?_x000a__x000a_[ SI / NO ]2" dataDxfId="6"/>
+    <tableColumn id="37" name="¿Se Aprobó la transaccion?_x000a__x000a_[ SI / NO ]3" dataDxfId="5"/>
+    <tableColumn id="14" name="Grabará en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="4"/>
+    <tableColumn id="50" name="Grabó en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="3"/>
+    <tableColumn id="15" name="Grabará el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO]" dataDxfId="2"/>
+    <tableColumn id="51" name="Grabó el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO ]" dataDxfId="1"/>
+    <tableColumn id="25" name="Dictamen del Caso de Prueba_x000a__x000a_[ EXITOSO / FALLIDO ]" dataDxfId="0">
+      <calculatedColumnFormula>IF(OR(
+ISNUMBER(SEARCH("INCORRECTO",O18)),
+ISNUMBER(SEARCH("INCORRECTO",Q18)),
+ISNUMBER(SEARCH("INCORRECTO",S18)),
+ISNUMBER(SEARCH("INCORRECTO",U18)),
+ISNUMBER(SEARCH("INCORRECTO",W18)),
+ISNUMBER(SEARCH("INCORRECTO",Y18)),
+ISNUMBER(SEARCH("INCORRECTO",AA18)),
+AB18&lt;&gt;AC18,
+AD18&lt;&gt;AE18,
+AF18&lt;&gt;AG18,
+AH18&lt;&gt;AI18,
+AJ18&lt;&gt;AK18,
+AL18&lt;&gt;AM18
+),"FALLIDO","EXITOSO")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3331,14 +3922,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3346,12 +3937,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3359,12 +3950,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3372,12 +3963,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3385,14 +3976,14 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3427,11 +4018,11 @@
     </row>
     <row r="9" spans="2:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="23"/>
-      <c r="C9" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="C9" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="4"/>
@@ -3442,12 +4033,12 @@
     </row>
     <row r="10" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -3459,12 +4050,12 @@
     </row>
     <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -3476,12 +4067,12 @@
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
-      <c r="C12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="75"/>
+      <c r="C12" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="79"/>
       <c r="E12" s="52" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -3493,12 +4084,12 @@
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -3510,10 +4101,10 @@
     </row>
     <row r="14" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
-      <c r="C14" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="75"/>
+      <c r="C14" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="79"/>
       <c r="E14" s="49"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -3525,10 +4116,10 @@
     </row>
     <row r="15" spans="2:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="23"/>
-      <c r="C15" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="77"/>
+      <c r="C15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="81"/>
       <c r="E15" s="50"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -3566,12 +4157,12 @@
     </row>
     <row r="18" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9"/>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -3586,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>3</v>
@@ -3603,16 +4194,16 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -3713,10 +4304,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AH122"/>
+  <dimension ref="A1:BQ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,196 +4319,241 @@
     <col min="5" max="5" width="76" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" style="17" customWidth="1"/>
-    <col min="8" max="11" width="35.6640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="17" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.6640625" style="17" customWidth="1"/>
-    <col min="14" max="16" width="35.6640625" style="17" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="50.6640625" style="17" customWidth="1"/>
-    <col min="20" max="21" width="35.6640625" style="17" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" style="17" customWidth="1"/>
-    <col min="24" max="26" width="35.6640625" style="17" customWidth="1"/>
-    <col min="27" max="28" width="17.6640625" style="17" customWidth="1"/>
-    <col min="29" max="29" width="50.6640625" style="17" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" style="17" customWidth="1"/>
-    <col min="31" max="31" width="3.88671875" style="17" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" style="17" customWidth="1"/>
-    <col min="33" max="34" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="35" max="16384" width="11.44140625" style="17" hidden="1"/>
+    <col min="8" max="25" width="35.6640625" style="17" customWidth="1"/>
+    <col min="26" max="27" width="38.88671875" style="17" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="17" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="12.6640625" style="17" customWidth="1"/>
+    <col min="32" max="39" width="17.6640625" style="17" customWidth="1"/>
+    <col min="40" max="40" width="23.6640625" style="17" customWidth="1"/>
+    <col min="41" max="41" width="3.88671875" style="17" customWidth="1"/>
+    <col min="42" max="42" width="6.44140625" style="17" customWidth="1"/>
+    <col min="43" max="69" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="70" max="16384" width="11.44140625" style="17" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:41" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="2:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="93"/>
-    </row>
-    <row r="3" spans="2:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="97"/>
-    </row>
-    <row r="4" spans="2:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="97"/>
-    </row>
-    <row r="5" spans="2:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="97"/>
-    </row>
-    <row r="6" spans="2:31" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="98" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AD1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AH1" s="21"/>
+    </row>
+    <row r="2" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="116"/>
+    </row>
+    <row r="3" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="120"/>
+    </row>
+    <row r="4" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="120"/>
+    </row>
+    <row r="5" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="120"/>
+    </row>
+    <row r="6" spans="2:41" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="101"/>
-    </row>
-    <row r="7" spans="2:31" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="122"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="124"/>
+    </row>
+    <row r="7" spans="2:41" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="24"/>
@@ -3928,183 +4564,201 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="2:31" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C8" s="102" t="s">
+      <c r="AB7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AF7" s="24"/>
+      <c r="AH7" s="21"/>
+    </row>
+    <row r="8" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="C8" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105" t="str">
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="128" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$10), Historial_de_Versiones!$E$10,"")</f>
         <v>EGBMR210172</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="2:31" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C9" s="78" t="s">
+    <row r="9" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="C9" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81" t="str">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="104" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$11), Historial_de_Versiones!$E$11,"")</f>
         <v>BBVA Latam</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="2:31" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C10" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111" t="str">
+    <row r="10" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="C10" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$12), Historial_de_Versiones!$E$12,"")</f>
         <v>BBVALatam [ 172.29..40.46 (Integracion) ]</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="2:31" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C11" s="78" t="s">
+    <row r="11" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="C11" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="114" t="str">
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$13),Historial_de_Versiones!$E$13,"")</f>
         <v>Febrero 2022 - Marzo 2022</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="2:31" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C12" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111" t="str">
+    <row r="12" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="C12" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$14), Historial_de_Versiones!$E$14,"")</f>
         <v/>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="2:31" s="19" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120" t="str">
+    <row r="13" spans="2:41" s="19" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$15), Historial_de_Versiones!$E$15,"")</f>
         <v/>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="2:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="2:31" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:41" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
+      <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
-    </row>
-    <row r="16" spans="2:31" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="G16" s="123" t="s">
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+    </row>
+    <row r="16" spans="2:41" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="G16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="123"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="34"/>
-    </row>
-    <row r="17" spans="3:30" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="34"/>
+    </row>
+    <row r="17" spans="3:40" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C17" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>13</v>
@@ -4116,3213 +4770,4859 @@
         <v>10</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="N17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="S17" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V17" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="W17" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE17" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="AK17" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="X17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z17" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="32" t="s">
+      <c r="AN17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AC17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD17" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="18">
-        <v>1</v>
+    </row>
+    <row r="18" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN18" s="18" t="str">
+        <f t="shared" ref="AN18:AN81" si="0">IF(OR(
+ISNUMBER(SEARCH("INCORRECTO",O18)),
+ISNUMBER(SEARCH("INCORRECTO",Q18)),
+ISNUMBER(SEARCH("INCORRECTO",S18)),
+ISNUMBER(SEARCH("INCORRECTO",U18)),
+ISNUMBER(SEARCH("INCORRECTO",W18)),
+ISNUMBER(SEARCH("INCORRECTO",Y18)),
+ISNUMBER(SEARCH("INCORRECTO",AA18)),
+AB18&lt;&gt;AC18,
+AD18&lt;&gt;AE18,
+AF18&lt;&gt;AG18,
+AH18&lt;&gt;AI18,
+AJ18&lt;&gt;AK18,
+AL18&lt;&gt;AM18
+),"FALLIDO","EXITOSO")</f>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="18">
         <v>2</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R19" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="18">
         <v>3</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C21" s="18">
         <v>4</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="22" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C22" s="18">
         <v>5</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="18">
         <v>6</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R23" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="24" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="18">
         <v>7</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="25" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C25" s="18">
         <v>8</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="3:30" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="26" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="18">
         <v>9</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="N26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="27" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="18">
         <v>10</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="Q27" s="18"/>
       <c r="S27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="U27" s="18"/>
       <c r="W27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
+      <c r="AB27" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="28" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C28" s="18">
         <v>11</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="18"/>
+      <c r="Q28" s="18"/>
       <c r="S28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="U28" s="18"/>
       <c r="W28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
+      <c r="AB28" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="29" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="18">
         <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R29" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="Q29" s="18"/>
       <c r="S29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="U29" s="18"/>
       <c r="W29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
+      <c r="AB29" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="30" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C30" s="18">
         <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R30" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="Q30" s="18"/>
       <c r="S30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="U30" s="18"/>
       <c r="W30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
+      <c r="AB30" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="18">
         <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R31" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O31" s="18"/>
+      <c r="Q31" s="18"/>
       <c r="S31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="U31" s="18"/>
       <c r="W31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
+      <c r="AB31" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C32" s="18">
         <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" s="18"/>
+      <c r="Q32" s="18"/>
       <c r="S32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="U32" s="18"/>
       <c r="W32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
+      <c r="AB32" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-    </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="33" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C33" s="18">
         <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R33" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="Q33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="V33" s="18"/>
+      <c r="U33" s="18"/>
       <c r="W33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
+      <c r="AB33" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-    </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="34" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C34" s="18">
         <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O34" s="18"/>
+      <c r="Q34" s="18"/>
       <c r="S34" s="18"/>
-      <c r="V34" s="18"/>
+      <c r="U34" s="18"/>
       <c r="W34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
       <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
+      <c r="AB34" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-    </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="35" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="18">
         <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="18"/>
+      <c r="Q35" s="18"/>
       <c r="S35" s="18"/>
-      <c r="V35" s="18"/>
+      <c r="U35" s="18"/>
       <c r="W35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
+      <c r="AB35" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-    </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="36" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="18">
         <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" s="18"/>
+      <c r="Q36" s="18"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="18"/>
+      <c r="U36" s="18"/>
       <c r="W36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
+      <c r="AB36" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-    </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="37" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C37" s="18">
         <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="Q37" s="18"/>
       <c r="S37" s="18"/>
-      <c r="V37" s="18"/>
+      <c r="U37" s="18"/>
       <c r="W37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
+      <c r="AB37" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-    </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="38" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C38" s="18">
         <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="Q38" s="18"/>
       <c r="S38" s="18"/>
-      <c r="V38" s="18"/>
+      <c r="U38" s="18"/>
       <c r="W38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
+      <c r="AB38" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-    </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="39" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C39" s="18">
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R39" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="Q39" s="18"/>
       <c r="S39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="U39" s="18"/>
       <c r="W39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
+      <c r="AB39" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-    </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="40" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="18">
         <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="Q40" s="18"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="18"/>
+      <c r="U40" s="18"/>
       <c r="W40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
       <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
+      <c r="AB40" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-    </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="41" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C41" s="18">
         <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" s="18"/>
+      <c r="Q41" s="18"/>
       <c r="S41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="U41" s="18"/>
       <c r="W41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
       <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
+      <c r="AB41" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-    </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="42" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C42" s="18">
         <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R42" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O42" s="18"/>
+      <c r="Q42" s="18"/>
       <c r="S42" s="18"/>
-      <c r="V42" s="18"/>
+      <c r="U42" s="18"/>
       <c r="W42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
       <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
+      <c r="AB42" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-    </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="43" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C43" s="18">
         <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q43" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R43" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="Q43" s="18"/>
       <c r="S43" s="18"/>
-      <c r="V43" s="18"/>
+      <c r="U43" s="18"/>
       <c r="W43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
       <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
+      <c r="AB43" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-    </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="44" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C44" s="18">
         <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" s="18"/>
+      <c r="Q44" s="18"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="18"/>
+      <c r="U44" s="18"/>
       <c r="W44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
       <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
+      <c r="AB44" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-    </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="45" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C45" s="18">
         <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R45" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O45" s="18"/>
+      <c r="Q45" s="18"/>
       <c r="S45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="U45" s="18"/>
       <c r="W45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
       <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
+      <c r="AB45" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-    </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="46" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C46" s="18">
         <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R46" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O46" s="18"/>
+      <c r="Q46" s="18"/>
       <c r="S46" s="18"/>
-      <c r="V46" s="18"/>
+      <c r="U46" s="18"/>
       <c r="W46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
+      <c r="AB46" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-    </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="47" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C47" s="18">
         <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R47" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O47" s="18"/>
+      <c r="Q47" s="18"/>
       <c r="S47" s="18"/>
-      <c r="V47" s="18"/>
+      <c r="U47" s="18"/>
       <c r="W47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
       <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
+      <c r="AB47" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-    </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="48" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="18">
         <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R48" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O48" s="18"/>
+      <c r="Q48" s="18"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="18"/>
+      <c r="U48" s="18"/>
       <c r="W48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
+      <c r="AB48" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="49" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C49" s="18">
         <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q49" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R49" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O49" s="18"/>
+      <c r="Q49" s="18"/>
       <c r="S49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="U49" s="18"/>
       <c r="W49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
       <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
+      <c r="AB49" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="50" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="18">
         <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R50" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O50" s="18"/>
+      <c r="Q50" s="18"/>
       <c r="S50" s="18"/>
-      <c r="V50" s="18"/>
+      <c r="U50" s="18"/>
       <c r="W50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
       <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
+      <c r="AB50" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="51" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="18">
         <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R51" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O51" s="18"/>
+      <c r="Q51" s="18"/>
       <c r="S51" s="18"/>
-      <c r="V51" s="18"/>
+      <c r="U51" s="18"/>
       <c r="W51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
       <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
+      <c r="AB51" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="52" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="18">
         <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q52" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R52" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O52" s="18"/>
+      <c r="Q52" s="18"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="18"/>
+      <c r="U52" s="18"/>
       <c r="W52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
       <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
+      <c r="AB52" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="53" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C53" s="18">
         <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R53" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53" s="18"/>
+      <c r="Q53" s="18"/>
       <c r="S53" s="18"/>
-      <c r="V53" s="18"/>
+      <c r="U53" s="18"/>
       <c r="W53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
       <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
+      <c r="AB53" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="54" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C54" s="18">
         <v>37</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M54" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q54" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R54" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O54" s="18"/>
+      <c r="Q54" s="18"/>
       <c r="S54" s="18"/>
-      <c r="V54" s="18"/>
+      <c r="U54" s="18"/>
       <c r="W54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
       <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
+      <c r="AB54" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD54" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="55" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C55" s="18">
         <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R55" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O55" s="18"/>
+      <c r="Q55" s="18"/>
       <c r="S55" s="18"/>
-      <c r="V55" s="18"/>
+      <c r="U55" s="18"/>
       <c r="W55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
       <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
+      <c r="AB55" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD55" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI55" s="18"/>
+      <c r="AJ55" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="56" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C56" s="18">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R56" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O56" s="18"/>
+      <c r="Q56" s="18"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="18"/>
+      <c r="U56" s="18"/>
       <c r="W56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
       <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
+      <c r="AB56" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD56" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="57" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C57" s="18">
         <v>40</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R57" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O57" s="18"/>
+      <c r="Q57" s="18"/>
       <c r="S57" s="18"/>
-      <c r="V57" s="18"/>
+      <c r="U57" s="18"/>
       <c r="W57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
       <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
+      <c r="AB57" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="58" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C58" s="18">
         <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R58" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O58" s="18"/>
+      <c r="Q58" s="18"/>
       <c r="S58" s="18"/>
-      <c r="V58" s="18"/>
+      <c r="U58" s="18"/>
       <c r="W58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
+      <c r="AB58" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="59" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C59" s="18">
         <v>42</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R59" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O59" s="18"/>
+      <c r="Q59" s="18"/>
       <c r="S59" s="18"/>
-      <c r="V59" s="18"/>
+      <c r="U59" s="18"/>
       <c r="W59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
       <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
+      <c r="AB59" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="60" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C60" s="18">
         <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R60" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O60" s="18"/>
+      <c r="Q60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="U60" s="18"/>
       <c r="W60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
       <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
+      <c r="AB60" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK60" s="18"/>
+      <c r="AL60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="61" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C61" s="18">
         <v>44</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R61" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O61" s="18"/>
+      <c r="Q61" s="18"/>
       <c r="S61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="U61" s="18"/>
       <c r="W61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
       <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
+      <c r="AB61" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI61" s="18"/>
+      <c r="AJ61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK61" s="18"/>
+      <c r="AL61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM61" s="18"/>
+      <c r="AN61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="62" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C62" s="18">
         <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L62" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R62" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N62" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O62" s="18"/>
+      <c r="Q62" s="18"/>
       <c r="S62" s="18"/>
-      <c r="V62" s="18"/>
+      <c r="U62" s="18"/>
       <c r="W62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
       <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
+      <c r="AB62" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="63" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C63" s="18">
         <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q63" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R63" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N63" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O63" s="18"/>
+      <c r="Q63" s="18"/>
       <c r="S63" s="18"/>
-      <c r="V63" s="18"/>
+      <c r="U63" s="18"/>
       <c r="W63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
       <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
+      <c r="AB63" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD63" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="64" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C64" s="18">
         <v>47</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M64" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q64" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R64" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N64" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O64" s="18"/>
+      <c r="Q64" s="18"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="18"/>
+      <c r="U64" s="18"/>
       <c r="W64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
       <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
+      <c r="AB64" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI64" s="18"/>
+      <c r="AJ64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="65" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C65" s="18">
         <v>48</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R65" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O65" s="18"/>
+      <c r="Q65" s="18"/>
       <c r="S65" s="18"/>
-      <c r="V65" s="18"/>
+      <c r="U65" s="18"/>
       <c r="W65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
       <c r="AA65" s="18"/>
-      <c r="AB65" s="18"/>
+      <c r="AB65" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-    </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="66" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C66" s="18">
         <v>49</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q66" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R66" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N66" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O66" s="18"/>
+      <c r="Q66" s="18"/>
       <c r="S66" s="18"/>
-      <c r="V66" s="18"/>
+      <c r="U66" s="18"/>
       <c r="W66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
+      <c r="AB66" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC66" s="18"/>
-      <c r="AD66" s="18"/>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI66" s="18"/>
+      <c r="AJ66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="67" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C67" s="18">
         <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M67" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q67" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R67" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O67" s="18"/>
+      <c r="Q67" s="18"/>
       <c r="S67" s="18"/>
-      <c r="V67" s="18"/>
+      <c r="U67" s="18"/>
       <c r="W67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
       <c r="AA67" s="18"/>
-      <c r="AB67" s="18"/>
+      <c r="AB67" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-    </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI67" s="18"/>
+      <c r="AJ67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK67" s="18"/>
+      <c r="AL67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM67" s="18"/>
+      <c r="AN67" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="68" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C68" s="18">
         <v>51</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M68" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q68" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R68" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O68" s="18"/>
+      <c r="Q68" s="18"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="18"/>
+      <c r="U68" s="18"/>
       <c r="W68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
       <c r="AA68" s="18"/>
-      <c r="AB68" s="18"/>
+      <c r="AB68" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC68" s="18"/>
-      <c r="AD68" s="18"/>
-    </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD68" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG68" s="18"/>
+      <c r="AH68" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI68" s="18"/>
+      <c r="AJ68" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK68" s="18"/>
+      <c r="AL68" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="69" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C69" s="18">
         <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M69" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q69" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R69" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O69" s="18"/>
+      <c r="Q69" s="18"/>
       <c r="S69" s="18"/>
-      <c r="V69" s="18"/>
+      <c r="U69" s="18"/>
       <c r="W69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
-      <c r="AB69" s="18"/>
+      <c r="AB69" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC69" s="18"/>
-      <c r="AD69" s="18"/>
-    </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE69" s="18"/>
+      <c r="AF69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG69" s="18"/>
+      <c r="AH69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI69" s="18"/>
+      <c r="AJ69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK69" s="18"/>
+      <c r="AL69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM69" s="18"/>
+      <c r="AN69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="70" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C70" s="18">
         <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L70" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M70" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q70" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R70" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O70" s="18"/>
+      <c r="Q70" s="18"/>
       <c r="S70" s="18"/>
-      <c r="V70" s="18"/>
+      <c r="U70" s="18"/>
       <c r="W70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
       <c r="AA70" s="18"/>
-      <c r="AB70" s="18"/>
+      <c r="AB70" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-    </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="71" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C71" s="18">
         <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M71" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q71" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R71" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O71" s="18"/>
+      <c r="Q71" s="18"/>
       <c r="S71" s="18"/>
-      <c r="V71" s="18"/>
+      <c r="U71" s="18"/>
       <c r="W71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
       <c r="AA71" s="18"/>
-      <c r="AB71" s="18"/>
+      <c r="AB71" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC71" s="18"/>
-      <c r="AD71" s="18"/>
-    </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK71" s="18"/>
+      <c r="AL71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="72" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C72" s="18">
         <v>55</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L72" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M72" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q72" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R72" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O72" s="18"/>
+      <c r="Q72" s="18"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="18"/>
+      <c r="U72" s="18"/>
       <c r="W72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
       <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
+      <c r="AB72" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-    </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD72" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="73" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C73" s="18">
         <v>56</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R73" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O73" s="18"/>
+      <c r="Q73" s="18"/>
       <c r="S73" s="18"/>
-      <c r="V73" s="18"/>
+      <c r="U73" s="18"/>
       <c r="W73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18"/>
       <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
+      <c r="AB73" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-    </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD73" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI73" s="18"/>
+      <c r="AJ73" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM73" s="18"/>
+      <c r="AN73" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="74" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C74" s="18">
         <v>57</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M74" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q74" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R74" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O74" s="18"/>
+      <c r="Q74" s="18"/>
       <c r="S74" s="18"/>
-      <c r="V74" s="18"/>
+      <c r="U74" s="18"/>
       <c r="W74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
       <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
+      <c r="AB74" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-    </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM74" s="18"/>
+      <c r="AN74" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="75" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C75" s="18">
         <v>58</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q75" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R75" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O75" s="18"/>
+      <c r="Q75" s="18"/>
       <c r="S75" s="18"/>
-      <c r="V75" s="18"/>
+      <c r="U75" s="18"/>
       <c r="W75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
       <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
+      <c r="AB75" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-    </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD75" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG75" s="18"/>
+      <c r="AH75" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI75" s="18"/>
+      <c r="AJ75" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK75" s="18"/>
+      <c r="AL75" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM75" s="18"/>
+      <c r="AN75" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="76" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C76" s="18">
         <v>59</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L76" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M76" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q76" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R76" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="Q76" s="18"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="18"/>
+      <c r="U76" s="18"/>
       <c r="W76" s="18"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="18"/>
       <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
+      <c r="AB76" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-    </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE76" s="18"/>
+      <c r="AF76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG76" s="18"/>
+      <c r="AH76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI76" s="18"/>
+      <c r="AJ76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK76" s="18"/>
+      <c r="AL76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM76" s="18"/>
+      <c r="AN76" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="77" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C77" s="18">
         <v>60</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L77" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M77" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q77" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R77" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N77" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O77" s="18"/>
+      <c r="Q77" s="18"/>
       <c r="S77" s="18"/>
-      <c r="V77" s="18"/>
+      <c r="U77" s="18"/>
       <c r="W77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
       <c r="AA77" s="18"/>
-      <c r="AB77" s="18"/>
+      <c r="AB77" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC77" s="18"/>
-      <c r="AD77" s="18"/>
-    </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG77" s="18"/>
+      <c r="AH77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI77" s="18"/>
+      <c r="AJ77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK77" s="18"/>
+      <c r="AL77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM77" s="18"/>
+      <c r="AN77" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="78" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C78" s="18">
         <v>61</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M78" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q78" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R78" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N78" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O78" s="18"/>
+      <c r="Q78" s="18"/>
       <c r="S78" s="18"/>
-      <c r="V78" s="18"/>
+      <c r="U78" s="18"/>
       <c r="W78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
       <c r="AA78" s="18"/>
-      <c r="AB78" s="18"/>
+      <c r="AB78" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC78" s="18"/>
-      <c r="AD78" s="18"/>
-    </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD78" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE78" s="18"/>
+      <c r="AF78" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG78" s="18"/>
+      <c r="AH78" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI78" s="18"/>
+      <c r="AJ78" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK78" s="18"/>
+      <c r="AL78" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="79" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C79" s="18">
         <v>62</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R79" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O79" s="18"/>
+      <c r="Q79" s="18"/>
       <c r="S79" s="18"/>
-      <c r="V79" s="18"/>
+      <c r="U79" s="18"/>
       <c r="W79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
       <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
+      <c r="AB79" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-    </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD79" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG79" s="18"/>
+      <c r="AH79" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI79" s="18"/>
+      <c r="AJ79" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK79" s="18"/>
+      <c r="AL79" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="80" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C80" s="18">
         <v>63</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R80" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O80" s="18"/>
+      <c r="Q80" s="18"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="18"/>
+      <c r="U80" s="18"/>
       <c r="W80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
       <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
+      <c r="AB80" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG80" s="18"/>
+      <c r="AH80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI80" s="18"/>
+      <c r="AJ80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK80" s="18"/>
+      <c r="AL80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="81" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C81" s="18">
         <v>64</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M81" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q81" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R81" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O81" s="18"/>
+      <c r="Q81" s="18"/>
       <c r="S81" s="18"/>
-      <c r="V81" s="18"/>
+      <c r="U81" s="18"/>
       <c r="W81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
       <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
+      <c r="AB81" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG81" s="18"/>
+      <c r="AH81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI81" s="18"/>
+      <c r="AJ81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK81" s="18"/>
+      <c r="AL81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="82" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C82" s="18">
         <v>65</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M82" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q82" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R82" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O82" s="18"/>
+      <c r="Q82" s="18"/>
       <c r="S82" s="18"/>
-      <c r="V82" s="18"/>
+      <c r="U82" s="18"/>
       <c r="W82" s="18"/>
+      <c r="Y82" s="18"/>
+      <c r="Z82" s="18"/>
       <c r="AA82" s="18"/>
-      <c r="AB82" s="18"/>
+      <c r="AB82" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC82" s="18"/>
-      <c r="AD82" s="18"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE82" s="18"/>
+      <c r="AF82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG82" s="18"/>
+      <c r="AH82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI82" s="18"/>
+      <c r="AJ82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK82" s="18"/>
+      <c r="AL82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="18" t="str">
+        <f t="shared" ref="AN82:AN91" si="1">IF(OR(
+ISNUMBER(SEARCH("INCORRECTO",O82)),
+ISNUMBER(SEARCH("INCORRECTO",Q82)),
+ISNUMBER(SEARCH("INCORRECTO",S82)),
+ISNUMBER(SEARCH("INCORRECTO",U82)),
+ISNUMBER(SEARCH("INCORRECTO",W82)),
+ISNUMBER(SEARCH("INCORRECTO",Y82)),
+ISNUMBER(SEARCH("INCORRECTO",AA82)),
+AB82&lt;&gt;AC82,
+AD82&lt;&gt;AE82,
+AF82&lt;&gt;AG82,
+AH82&lt;&gt;AI82,
+AJ82&lt;&gt;AK82,
+AL82&lt;&gt;AM82
+),"FALLIDO","EXITOSO")</f>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="83" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C83" s="18">
         <v>66</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M83" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q83" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R83" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N83" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O83" s="18"/>
+      <c r="Q83" s="18"/>
       <c r="S83" s="18"/>
-      <c r="V83" s="18"/>
+      <c r="U83" s="18"/>
       <c r="W83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18"/>
       <c r="AA83" s="18"/>
-      <c r="AB83" s="18"/>
+      <c r="AB83" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE83" s="18"/>
+      <c r="AF83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG83" s="18"/>
+      <c r="AH83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI83" s="18"/>
+      <c r="AJ83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK83" s="18"/>
+      <c r="AL83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="84" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C84" s="18">
         <v>67</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E84" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F84" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="G84" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M84" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q84" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R84" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O84" s="18"/>
+      <c r="Q84" s="18"/>
       <c r="S84" s="18"/>
-      <c r="V84" s="18"/>
+      <c r="U84" s="18"/>
       <c r="W84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="18"/>
       <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
+      <c r="AB84" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG84" s="18"/>
+      <c r="AH84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI84" s="18"/>
+      <c r="AJ84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK84" s="18"/>
+      <c r="AL84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="85" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C85" s="18">
         <v>68</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E85" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F85" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M85" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q85" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R85" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="N85" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O85" s="18"/>
+      <c r="Q85" s="18"/>
       <c r="S85" s="18"/>
-      <c r="V85" s="18"/>
+      <c r="U85" s="18"/>
       <c r="W85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
       <c r="AA85" s="18"/>
-      <c r="AB85" s="18"/>
+      <c r="AB85" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD85" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI85" s="18"/>
+      <c r="AJ85" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK85" s="18"/>
+      <c r="AL85" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="86" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C86" s="18">
         <v>69</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M86" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q86" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R86" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O86" s="18"/>
+      <c r="Q86" s="18"/>
       <c r="S86" s="18"/>
-      <c r="V86" s="18"/>
+      <c r="U86" s="18"/>
       <c r="W86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
       <c r="AA86" s="18"/>
-      <c r="AB86" s="18"/>
+      <c r="AB86" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD86" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI86" s="18"/>
+      <c r="AJ86" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK86" s="18"/>
+      <c r="AL86" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="87" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C87" s="18">
         <v>70</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q87" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R87" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N87" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O87" s="18"/>
+      <c r="Q87" s="18"/>
       <c r="S87" s="18"/>
-      <c r="V87" s="18"/>
+      <c r="U87" s="18"/>
       <c r="W87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="18"/>
       <c r="AA87" s="18"/>
-      <c r="AB87" s="18"/>
+      <c r="AB87" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC87" s="18"/>
-      <c r="AD87" s="18"/>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE87" s="18"/>
+      <c r="AF87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG87" s="18"/>
+      <c r="AH87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI87" s="18"/>
+      <c r="AJ87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK87" s="18"/>
+      <c r="AL87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="88" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C88" s="18">
         <v>71</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q88" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R88" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N88" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O88" s="18"/>
+      <c r="Q88" s="18"/>
       <c r="S88" s="18"/>
-      <c r="V88" s="18"/>
+      <c r="U88" s="18"/>
       <c r="W88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
       <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
+      <c r="AB88" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC88" s="18"/>
-      <c r="AD88" s="18"/>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD88" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG88" s="18"/>
+      <c r="AH88" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI88" s="18"/>
+      <c r="AJ88" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK88" s="18"/>
+      <c r="AL88" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="89" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C89" s="18">
         <v>72</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q89" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R89" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N89" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O89" s="18"/>
+      <c r="Q89" s="18"/>
       <c r="S89" s="18"/>
-      <c r="V89" s="18"/>
+      <c r="U89" s="18"/>
       <c r="W89" s="18"/>
+      <c r="Y89" s="18"/>
+      <c r="Z89" s="18"/>
       <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
+      <c r="AB89" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD89" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE89" s="18"/>
+      <c r="AF89" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG89" s="18"/>
+      <c r="AH89" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI89" s="18"/>
+      <c r="AJ89" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK89" s="18"/>
+      <c r="AL89" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="90" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C90" s="18">
         <v>73</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q90" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R90" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N90" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O90" s="18"/>
+      <c r="Q90" s="18"/>
       <c r="S90" s="18"/>
-      <c r="V90" s="18"/>
+      <c r="U90" s="18"/>
       <c r="W90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
       <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
+      <c r="AB90" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD90" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI90" s="18"/>
+      <c r="AJ90" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK90" s="18"/>
+      <c r="AL90" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="91" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C91" s="18">
         <v>74</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q91" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R91" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O91" s="18"/>
+      <c r="Q91" s="18"/>
       <c r="S91" s="18"/>
-      <c r="V91" s="18"/>
+      <c r="U91" s="18"/>
       <c r="W91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
       <c r="AA91" s="18"/>
-      <c r="AB91" s="18"/>
+      <c r="AB91" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="AC91" s="18"/>
-      <c r="AD91" s="18"/>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AD91" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI91" s="18"/>
+      <c r="AJ91" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK91" s="18"/>
+      <c r="AL91" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>FALLIDO</v>
+      </c>
+    </row>
+    <row r="92" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
+      <c r="Z92" s="18"/>
       <c r="AA92" s="18"/>
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
       <c r="AD92" s="18"/>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="18"/>
+      <c r="AJ92" s="18"/>
+      <c r="AK92" s="18"/>
+      <c r="AL92" s="18"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="18"/>
+    </row>
+    <row r="93" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
+      <c r="Z93" s="18"/>
       <c r="AA93" s="18"/>
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
       <c r="AD93" s="18"/>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE93" s="18"/>
+      <c r="AF93" s="18"/>
+      <c r="AG93" s="18"/>
+      <c r="AH93" s="18"/>
+      <c r="AI93" s="18"/>
+      <c r="AJ93" s="18"/>
+      <c r="AK93" s="18"/>
+      <c r="AL93" s="18"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="18"/>
+    </row>
+    <row r="94" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
+      <c r="Z94" s="18"/>
       <c r="AA94" s="18"/>
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
       <c r="AD94" s="18"/>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
+      <c r="AG94" s="18"/>
+      <c r="AH94" s="18"/>
+      <c r="AI94" s="18"/>
+      <c r="AJ94" s="18"/>
+      <c r="AK94" s="18"/>
+      <c r="AL94" s="18"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="18"/>
+    </row>
+    <row r="95" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
+      <c r="Z95" s="18"/>
       <c r="AA95" s="18"/>
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
       <c r="AD95" s="18"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE95" s="18"/>
+      <c r="AF95" s="18"/>
+      <c r="AG95" s="18"/>
+      <c r="AH95" s="18"/>
+      <c r="AI95" s="18"/>
+      <c r="AJ95" s="18"/>
+      <c r="AK95" s="18"/>
+      <c r="AL95" s="18"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="18"/>
+    </row>
+    <row r="96" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
+      <c r="Z96" s="18"/>
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
       <c r="AD96" s="18"/>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE96" s="18"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="18"/>
+      <c r="AH96" s="18"/>
+      <c r="AI96" s="18"/>
+      <c r="AJ96" s="18"/>
+      <c r="AK96" s="18"/>
+      <c r="AL96" s="18"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="18"/>
+    </row>
+    <row r="97" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
+      <c r="Z97" s="18"/>
       <c r="AA97" s="18"/>
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
       <c r="AD97" s="18"/>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE97" s="18"/>
+      <c r="AF97" s="18"/>
+      <c r="AG97" s="18"/>
+      <c r="AH97" s="18"/>
+      <c r="AI97" s="18"/>
+      <c r="AJ97" s="18"/>
+      <c r="AK97" s="18"/>
+      <c r="AL97" s="18"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="18"/>
+    </row>
+    <row r="98" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
+      <c r="Z98" s="18"/>
       <c r="AA98" s="18"/>
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
       <c r="AD98" s="18"/>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE98" s="18"/>
+      <c r="AF98" s="18"/>
+      <c r="AG98" s="18"/>
+      <c r="AH98" s="18"/>
+      <c r="AI98" s="18"/>
+      <c r="AJ98" s="18"/>
+      <c r="AK98" s="18"/>
+      <c r="AL98" s="18"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="18"/>
+    </row>
+    <row r="99" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
+      <c r="Z99" s="18"/>
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
       <c r="AD99" s="18"/>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE99" s="18"/>
+      <c r="AF99" s="18"/>
+      <c r="AG99" s="18"/>
+      <c r="AH99" s="18"/>
+      <c r="AI99" s="18"/>
+      <c r="AJ99" s="18"/>
+      <c r="AK99" s="18"/>
+      <c r="AL99" s="18"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="18"/>
+    </row>
+    <row r="100" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
+      <c r="Z100" s="18"/>
       <c r="AA100" s="18"/>
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
       <c r="AD100" s="18"/>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE100" s="18"/>
+      <c r="AF100" s="18"/>
+      <c r="AG100" s="18"/>
+      <c r="AH100" s="18"/>
+      <c r="AI100" s="18"/>
+      <c r="AJ100" s="18"/>
+      <c r="AK100" s="18"/>
+      <c r="AL100" s="18"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="18"/>
+    </row>
+    <row r="101" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
+      <c r="Z101" s="18"/>
       <c r="AA101" s="18"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
       <c r="AD101" s="18"/>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE101" s="18"/>
+      <c r="AF101" s="18"/>
+      <c r="AG101" s="18"/>
+      <c r="AH101" s="18"/>
+      <c r="AI101" s="18"/>
+      <c r="AJ101" s="18"/>
+      <c r="AK101" s="18"/>
+      <c r="AL101" s="18"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="18"/>
+    </row>
+    <row r="102" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
+      <c r="Z102" s="18"/>
       <c r="AA102" s="18"/>
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
       <c r="AD102" s="18"/>
-    </row>
-    <row r="103" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE102" s="18"/>
+      <c r="AF102" s="18"/>
+      <c r="AG102" s="18"/>
+      <c r="AH102" s="18"/>
+      <c r="AI102" s="18"/>
+      <c r="AJ102" s="18"/>
+      <c r="AK102" s="18"/>
+      <c r="AL102" s="18"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="18"/>
+    </row>
+    <row r="103" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
+      <c r="Z103" s="18"/>
       <c r="AA103" s="18"/>
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
       <c r="AD103" s="18"/>
-    </row>
-    <row r="104" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE103" s="18"/>
+      <c r="AF103" s="18"/>
+      <c r="AG103" s="18"/>
+      <c r="AH103" s="18"/>
+      <c r="AI103" s="18"/>
+      <c r="AJ103" s="18"/>
+      <c r="AK103" s="18"/>
+      <c r="AL103" s="18"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="18"/>
+    </row>
+    <row r="104" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
+      <c r="Z104" s="18"/>
       <c r="AA104" s="18"/>
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
       <c r="AD104" s="18"/>
-    </row>
-    <row r="105" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE104" s="18"/>
+      <c r="AF104" s="18"/>
+      <c r="AG104" s="18"/>
+      <c r="AH104" s="18"/>
+      <c r="AI104" s="18"/>
+      <c r="AJ104" s="18"/>
+      <c r="AK104" s="18"/>
+      <c r="AL104" s="18"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="18"/>
+    </row>
+    <row r="105" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
+      <c r="Z105" s="18"/>
       <c r="AA105" s="18"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
       <c r="AD105" s="18"/>
-    </row>
-    <row r="106" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE105" s="18"/>
+      <c r="AF105" s="18"/>
+      <c r="AG105" s="18"/>
+      <c r="AH105" s="18"/>
+      <c r="AI105" s="18"/>
+      <c r="AJ105" s="18"/>
+      <c r="AK105" s="18"/>
+      <c r="AL105" s="18"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="18"/>
+    </row>
+    <row r="106" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="V106" s="18"/>
-      <c r="W106" s="18"/>
+      <c r="Z106" s="18"/>
       <c r="AA106" s="18"/>
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
       <c r="AD106" s="18"/>
-    </row>
-    <row r="107" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE106" s="18"/>
+      <c r="AF106" s="18"/>
+      <c r="AG106" s="18"/>
+      <c r="AH106" s="18"/>
+      <c r="AI106" s="18"/>
+      <c r="AJ106" s="18"/>
+      <c r="AK106" s="18"/>
+      <c r="AL106" s="18"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="18"/>
+    </row>
+    <row r="107" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
+      <c r="Z107" s="18"/>
       <c r="AA107" s="18"/>
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
       <c r="AD107" s="18"/>
-    </row>
-    <row r="108" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE107" s="18"/>
+      <c r="AF107" s="18"/>
+      <c r="AG107" s="18"/>
+      <c r="AH107" s="18"/>
+      <c r="AI107" s="18"/>
+      <c r="AJ107" s="18"/>
+      <c r="AK107" s="18"/>
+      <c r="AL107" s="18"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="18"/>
+    </row>
+    <row r="108" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
+      <c r="Z108" s="18"/>
       <c r="AA108" s="18"/>
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
       <c r="AD108" s="18"/>
-    </row>
-    <row r="109" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE108" s="18"/>
+      <c r="AF108" s="18"/>
+      <c r="AG108" s="18"/>
+      <c r="AH108" s="18"/>
+      <c r="AI108" s="18"/>
+      <c r="AJ108" s="18"/>
+      <c r="AK108" s="18"/>
+      <c r="AL108" s="18"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="18"/>
+    </row>
+    <row r="109" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
+      <c r="Z109" s="18"/>
       <c r="AA109" s="18"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
       <c r="AD109" s="18"/>
-    </row>
-    <row r="110" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE109" s="18"/>
+      <c r="AF109" s="18"/>
+      <c r="AG109" s="18"/>
+      <c r="AH109" s="18"/>
+      <c r="AI109" s="18"/>
+      <c r="AJ109" s="18"/>
+      <c r="AK109" s="18"/>
+      <c r="AL109" s="18"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="18"/>
+    </row>
+    <row r="110" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
+      <c r="Z110" s="18"/>
       <c r="AA110" s="18"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
       <c r="AD110" s="18"/>
-    </row>
-    <row r="111" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE110" s="18"/>
+      <c r="AF110" s="18"/>
+      <c r="AG110" s="18"/>
+      <c r="AH110" s="18"/>
+      <c r="AI110" s="18"/>
+      <c r="AJ110" s="18"/>
+      <c r="AK110" s="18"/>
+      <c r="AL110" s="18"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="18"/>
+    </row>
+    <row r="111" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
+      <c r="Z111" s="18"/>
       <c r="AA111" s="18"/>
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
       <c r="AD111" s="18"/>
-    </row>
-    <row r="112" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE111" s="18"/>
+      <c r="AF111" s="18"/>
+      <c r="AG111" s="18"/>
+      <c r="AH111" s="18"/>
+      <c r="AI111" s="18"/>
+      <c r="AJ111" s="18"/>
+      <c r="AK111" s="18"/>
+      <c r="AL111" s="18"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="18"/>
+    </row>
+    <row r="112" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
+      <c r="Z112" s="18"/>
       <c r="AA112" s="18"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
       <c r="AD112" s="18"/>
-    </row>
-    <row r="113" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE112" s="18"/>
+      <c r="AF112" s="18"/>
+      <c r="AG112" s="18"/>
+      <c r="AH112" s="18"/>
+      <c r="AI112" s="18"/>
+      <c r="AJ112" s="18"/>
+      <c r="AK112" s="18"/>
+      <c r="AL112" s="18"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="18"/>
+    </row>
+    <row r="113" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-      <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
+      <c r="Z113" s="18"/>
       <c r="AA113" s="18"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
       <c r="AD113" s="18"/>
-    </row>
-    <row r="114" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="18"/>
+      <c r="AH113" s="18"/>
+      <c r="AI113" s="18"/>
+      <c r="AJ113" s="18"/>
+      <c r="AK113" s="18"/>
+      <c r="AL113" s="18"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+    </row>
+    <row r="114" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
+      <c r="Z114" s="18"/>
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
       <c r="AD114" s="18"/>
-    </row>
-    <row r="115" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE114" s="18"/>
+      <c r="AF114" s="18"/>
+      <c r="AG114" s="18"/>
+      <c r="AH114" s="18"/>
+      <c r="AI114" s="18"/>
+      <c r="AJ114" s="18"/>
+      <c r="AK114" s="18"/>
+      <c r="AL114" s="18"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="18"/>
+    </row>
+    <row r="115" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
+      <c r="Z115" s="18"/>
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
       <c r="AD115" s="18"/>
-    </row>
-    <row r="116" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE115" s="18"/>
+      <c r="AF115" s="18"/>
+      <c r="AG115" s="18"/>
+      <c r="AH115" s="18"/>
+      <c r="AI115" s="18"/>
+      <c r="AJ115" s="18"/>
+      <c r="AK115" s="18"/>
+      <c r="AL115" s="18"/>
+      <c r="AM115" s="18"/>
+      <c r="AN115" s="18"/>
+    </row>
+    <row r="116" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
+      <c r="Z116" s="18"/>
       <c r="AA116" s="18"/>
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
       <c r="AD116" s="18"/>
-    </row>
-    <row r="117" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE116" s="18"/>
+      <c r="AF116" s="18"/>
+      <c r="AG116" s="18"/>
+      <c r="AH116" s="18"/>
+      <c r="AI116" s="18"/>
+      <c r="AJ116" s="18"/>
+      <c r="AK116" s="18"/>
+      <c r="AL116" s="18"/>
+      <c r="AM116" s="18"/>
+      <c r="AN116" s="18"/>
+    </row>
+    <row r="117" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
+      <c r="Z117" s="18"/>
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
       <c r="AD117" s="18"/>
-    </row>
-    <row r="118" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE117" s="18"/>
+      <c r="AF117" s="18"/>
+      <c r="AG117" s="18"/>
+      <c r="AH117" s="18"/>
+      <c r="AI117" s="18"/>
+      <c r="AJ117" s="18"/>
+      <c r="AK117" s="18"/>
+      <c r="AL117" s="18"/>
+      <c r="AM117" s="18"/>
+      <c r="AN117" s="18"/>
+    </row>
+    <row r="118" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
+      <c r="Z118" s="18"/>
       <c r="AA118" s="18"/>
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
       <c r="AD118" s="18"/>
-    </row>
-    <row r="119" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AE118" s="18"/>
+      <c r="AF118" s="18"/>
+      <c r="AG118" s="18"/>
+      <c r="AH118" s="18"/>
+      <c r="AI118" s="18"/>
+      <c r="AJ118" s="18"/>
+      <c r="AK118" s="18"/>
+      <c r="AL118" s="18"/>
+      <c r="AM118" s="18"/>
+      <c r="AN118" s="18"/>
+    </row>
+    <row r="119" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
     </row>
-    <row r="121" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
     </row>
-    <row r="122" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="19">
+  <mergeCells count="17">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="D2:AO5"/>
+    <mergeCell ref="D6:AO6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="T16:AB16"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="D2:AE5"/>
-    <mergeCell ref="D6:AE6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="AD1 AD7:AD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="AN1 AN7:AN1048576">
+    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
       <formula>"FALLIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>"EXITOSO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="43">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD18:AD118">
+  <conditionalFormatting sqref="AC18:AC1048576">
+    <cfRule type="expression" dxfId="52" priority="14">
+      <formula>$AB18&lt;&gt;$AC18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE18:AE1048576">
+    <cfRule type="expression" dxfId="51" priority="13">
+      <formula>$AD18&lt;&gt;$AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG18:AG1048576">
+    <cfRule type="expression" dxfId="50" priority="12">
+      <formula>$AD18&lt;&gt;$AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI18:AI1048576">
+    <cfRule type="expression" dxfId="49" priority="11">
+      <formula>$AD18&lt;&gt;$AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK18:AK1048576">
+    <cfRule type="expression" dxfId="48" priority="10">
+      <formula>$AD18&lt;&gt;$AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM18:AM1048576">
+    <cfRule type="expression" dxfId="47" priority="9">
+      <formula>$AD18&lt;&gt;$AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O1048576">
+    <cfRule type="expression" dxfId="46" priority="7">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$O18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:Q1048576">
+    <cfRule type="expression" dxfId="45" priority="6">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$Q$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:S1048576">
+    <cfRule type="expression" dxfId="44" priority="5">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$S$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18:U1048576">
+    <cfRule type="expression" dxfId="43" priority="4">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$U$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18:W1048576">
+    <cfRule type="expression" dxfId="42" priority="3">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$W$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18:Y1048576">
+    <cfRule type="expression" dxfId="41" priority="2">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$Y$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA18:AA1048576">
+    <cfRule type="expression" dxfId="40" priority="1">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$AA$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations xWindow="814" yWindow="560" count="40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN18:AN118">
       <formula1>"EXITOSO,FALLIDO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:M118 Q18:S118 V18:W118 AA18:AB118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z18:AM118">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G118">
@@ -7333,27 +9633,24 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ambiente de Ejecucion" prompt="Indicar en que Ambiente  (Nombre Plataforma [IP + Identificador de Ambiente]) se realizaron las pruebas._x000a_p.e_x000a_ - POS 3.4 [ 172.29.40.10 (Candy) ]_x000a_ - EVO 4.5 [ 172.29.40.148 (Goku) ]_x000a_ - BBVALatam 4.5 [ 172.29.40.46 (Integración) ]" sqref="C10:F10"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre Proyecto" prompt="Mencionar el Nombre con el cual fue dado de alta el Proyecto por la Oficina de Proyectos (Referencia JIRA)." sqref="C9:F9"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID Proyecto" prompt="Indicar el ID del Proyecto, Incidente, Problema que atienda algun desarrollo implementado por la Plataforma Línea (Referencia JIRA)." sqref="C8:F8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó Registro DESC" prompt="Indicar si se generó Registro DESC y en caso de aplicar Indicar si se generó un registro Adicional en especifico._x000a_p.e._x000a_ - SI - AD14(Contactless)_x000a_ - SI - AD03(EMV), AD06(Marcas)._x000a_ - NO" sqref="AB17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dictamen de Caso" prompt="Indicar si  fue Exitoso el RESULTADO ESPERADO coincide con el RESULTADO REAL, en caso de que no inidcar como Fallido._x000a__x000a_Posibles Valores:_x000a_ - EXITOSO_x000a_ - FALLIDO" sqref="AD17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó TRL_LOG" prompt="Indicar si se grabó la Transaccion en el Transaction Log o No_x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AA17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condición Especial - Resp Adq" prompt="Colocar los valores de CONDICIONES ESPECIALES que se visualizaron en el mensaje RECIBIDO por EMISOR._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 039 : [00]" sqref="Z17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condición Especial - Resp Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se visualizaron en el mensaje RECIBIDO por EMISOR._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE039 : [00]" sqref="Y17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Req Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se visualizaron en el mensaje ENVIADO al EMISOR._x000a_p.e._x000a_ - MTI : [0100]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 025 : [59] - No se mapea el valor de Adq_x000a_ - DE 063 Tkn 04 Sub 03: [0]" sqref="X17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Se aprobó la transaccion?" prompt="Indicar si se aprobó la transaccion o se declinó._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="W17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Fluyó al Emisor?" prompt="Indicar si fluyo hacia el emisor._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="V17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tarjeta" prompt="Valor de la Tarjeta de Prueba" sqref="U17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timestamp" prompt="Valor del Timestamp de la transaccion que represente el caso.  _x000a__x000a_El Timestamp debe de coincidir con el timestamp asignado por el proceso Adquirente cuando este lee la Txn" sqref="T17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resultado Real" prompt="Sección en la cual se detalla el resultado Real de la Prueba._x000a__x000a_Nota: Los valores de esta seccion son llenados Respecto al resultado de la ejecucion de la prueba." sqref="T16:AD16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabará Reg DESC" prompt="Indicar si se ESPERÁ  que se genere Registro DESC y en caso de aplicar Indicar si se ESPERÁ  un registro Adicional en especifico._x000a_p.e._x000a_ - SI - AD14(Contactless)_x000a_ - SI - AD03(EMV), AD06(Marcas)_x000a_ - NO" sqref="R17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabará TRL_LOG" prompt="Indicar si se ESPERÁ que se grabe la Transaccion en el Transaction Log o No_x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="Q17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Resp Adq" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ  se cumplan en el mensaje ENVIADO al ADQUIRENTE._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 039 : [00]" sqref="P17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Resp Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ  se cumplan en el mensaje RECIBIDO por EMISOR._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 039 : [00]_x000a_" sqref="O17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Req Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ se cumplan en el mensaje ENVIADO al EMISOR._x000a_p.e._x000a_ - MTI : [0100]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 025 : [59] - No se mapea el valor de Adq_x000a_ - DE 063 Tkn 04 Sub 03: [0]" sqref="N17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Se Aprobará la transacción?" prompt="Indicar si se espera que se apruebe o se decline la transaccion._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="M17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Fluirá al Emisor?" prompt="Indicar si se espera flujo hacia el emisor._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="L17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resultado Esperado" prompt="Sección en la cual se detalla que resultado se espera de la prueba._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="L16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó Registro DESC" prompt="Indicar si se generó Registro DESC y en caso de aplicar Indicar si se generó un registro Adicional en especifico._x000a_p.e._x000a_ - SI - AD14(Contactless)_x000a_ - SI - AD03(EMV), AD06(Marcas)._x000a_ - NO" sqref="AM17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dictamen de Caso" prompt="Indicar si  fue Exitoso el RESULTADO ESPERADO coincide con el RESULTADO REAL, en caso de que no inidcar como Fallido._x000a__x000a_Posibles Valores:_x000a_ - EXITOSO_x000a_ - FALLIDO" sqref="AN17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó TRL_LOG" prompt="Indicar si se grabó la Transaccion en el Transaction Log o No_x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AK17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Se aprobó la transaccion?" prompt="Indicar si se aprobó la transaccion o se declinó._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AI17 AG17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Fluyó al Emisor?" prompt="Indicar si fluyo hacia el emisor._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AC17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tarjeta" prompt="Valor de la Tarjeta de Prueba" sqref="M17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timestamp" prompt="Valor del Timestamp de la transaccion que represente el caso.  _x000a__x000a_El Timestamp debe de coincidir con el timestamp asignado por el proceso Adquirente cuando este lee la Txn" sqref="L17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resultado Real" prompt="Sección en la cual se detalla el resultado Real de la Prueba._x000a__x000a_Nota: Los valores de esta seccion son llenados Respecto al resultado de la ejecucion de la prueba." sqref="AC16 AM16:AN16 AI16 AK16 AE16 AG16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabará Reg DESC" prompt="Indicar si se ESPERÁ  que se genere Registro DESC y en caso de aplicar Indicar si se ESPERÁ  un registro Adicional en especifico._x000a_p.e._x000a_ - SI - AD14(Contactless)_x000a_ - SI - AD03(EMV), AD06(Marcas)_x000a_ - NO" sqref="AL17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabará TRL_LOG" prompt="Indicar si se ESPERÁ que se grabe la Transaccion en el Transaction Log o No_x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AJ17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Resp Adq" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ  se cumplan en el mensaje ENVIADO al ADQUIRENTE._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 039 : [00]" sqref="R17:Y17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Resp Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ  se cumplan en el mensaje RECIBIDO por EMISOR._x000a_p.e._x000a_ - MTI : [0110]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 039 : [00]_x000a_" sqref="P17:Q17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condicion Especial - Req Emi" prompt="Colocar los valores de CONDICIONES ESPECIALES que se ESPERÁ se cumplan en el mensaje ENVIADO al EMISOR._x000a_p.e._x000a_ - MTI : [0100]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 025 : [59] - No se mapea el valor de Adq_x000a_ - DE 063 Tkn 04 Sub 03: [0]" sqref="N17:O17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Se Aprobará la transacción?" prompt="Indicar si se espera que se apruebe o se decline la transaccion._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AH17 AF17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Fluirá al Emisor?" prompt="Indicar si se espera flujo hacia el emisor._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AB17 AD17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resultado Esperado" prompt="Sección en la cual se detalla que resultado se espera de la prueba._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="AB16 AD16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Condiciones de la Transación" prompt="Colocar los valores o condiciones de la transaccion que permita identificar el tipo al que pertence._x000a_p.e._x000a_ - MTI : [0100]_x000a_ - DE 003 : [00xxxx]_x000a_ - DE 025 : [59]_x000a_ - DE 063 Tkn 04 Sub 03: [0]" sqref="K17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Caracteristicas de Transacción" prompt="Seccion para especificar Informacion para identificar las Caracteristicas de la Transacción._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="J16:K16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Caracteristicas de Transacción" prompt="Seccion para especificar Informacion para identificar las Caracteristicas de la Transacción._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="J16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Transaccion" prompt="Identificar el tipo de transaccio, siguiendo la siguiente nomenclatura:_x000a__x000a_TipoTransaccion (Compra / Reverso Compra / etc.) + Naturaleza Comercio [Solo POS] (Retail / Hoteleras/ Ecommerce / etc.)_x000a_p.e._x000a_ - Compra - Ecommerce_x000a_ - Cierre Lotes_x000a_ - Consulta Saldo" sqref="J17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de Entidad Emisora" prompt="Especificar el nombre del Institucion Emisora o Servicio._x000a_p.e._x000a_ - BBVA_x000a_ - PROSA_x000a_ - VISA_x000a_ - MasterCard_x000a_ - RiskCenter_x000a_ - VTS" sqref="I17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Emisor" prompt="Seccion para especificar Informacion para identificar al Emisor._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="I16"/>
@@ -7368,8 +9665,8 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Archivo SIM_QUEUE/FIMET" prompt="Nombre del Archivo Base (Layout) SIM_QUEUE/FIMET que se utilizo en la prueba._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="E17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripcion del Caso" prompt="Descripcion Breve del caso que se documenta en la Matriz" sqref="D17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Consideraciones Extra a Revisar" prompt="Indicar Brevemente lo que se debe de revisar en la prueba._x000a_p.e._x000a_ - DECLINACION EN ACCION [XXXX] POR ON2 [xxxx]_x000a_ - FLUJO COMPLETO_x000a_ - TIMEOUT_x000a_ - GENERACION DE DESC ADICIONAL [xxx]_x000a_ - ENVIO A KAFTKA DE CAMPO [XXXX]" sqref="S17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Observacion de Consideraciones" prompt="Indicar Brevemente lo que se debe de revisar en la prueba._x000a_p.e._x000a_ - DECLINACION EN ACCION [XXXX] POR ON2 [xxxx]- [NO]_x000a_ - FLUJO COMPLETO - [NO]_x000a_ - GENERA TIMEOUT - [SI]_x000a_ - GENERACION DE DESC ADICIONAL [xxx] -[SI]" sqref="AC17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Consideraciones Extra a Revisar" prompt="Indicar Brevemente lo que se debe de revisar en la prueba._x000a_p.e._x000a_ - DECLINACION EN ACCION [XXXX] POR ON2 [xxxx]_x000a_ - FLUJO COMPLETO_x000a_ - TIMEOUT_x000a_ - GENERACION DE DESC ADICIONAL [xxx]_x000a_ - ENVIO A KAFTKA DE CAMPO [XXXX]" sqref="Z17:AA17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="¿Fluyó al Emisor?" prompt="Indicar si fluyo hacia RiskCenter._x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AE17"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/eg-pos-mortem/templates/MPUL-Template.xlsx
+++ b/eg-pos-mortem/templates/MPUL-Template.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\wsfimetboot\eg-pos-mortem\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msb5814\Downloads\EgPosMortem\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10584" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial_de_Versiones" sheetId="4" r:id="rId1"/>
     <sheet name="MPU_Flujos(ReporteDeCasos)" sheetId="9" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MPU_Flujos(ReporteDeCasos)'!$B$17:$B$91</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="169">
   <si>
     <t>Autor</t>
   </si>
@@ -471,19 +474,7 @@
     <t>Marzo 2022</t>
   </si>
   <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKIN_ECI5_3DS1.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_CHECKOUT_ECI5_3DS1.uc</t>
-  </si>
-  <si>
     <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_COMPRA_INTERRED.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_0.uc</t>
-  </si>
-  <si>
-    <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_1.uc</t>
   </si>
   <si>
     <t>BBVAPE-ADQ_OPAY-EMI_MC_COF_ECOMMERCE_C4_4_2.uc</t>
@@ -798,14 +789,6 @@
     </r>
   </si>
   <si>
-    <t>¿Se Aprobará la transaccion?
-[ SI / NO ]2</t>
-  </si>
-  <si>
-    <t>¿Se Aprobó la transaccion?
-[ SI / NO ]3</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">¿Emisor Aprobará la transaccion?
 </t>
@@ -984,11 +967,145 @@
     </r>
   </si>
   <si>
-    <t>[Igual][acq.req.63.PJ][MR]
-[Igual][acq.req.3.substring(0,4)][0000]</t>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PE-COF-OPAY-MC_ENROLAMIENTO.uc</t>
+  </si>
+  <si>
+    <t>Enrolamiento COF</t>
   </si>
   <si>
     <t>COF000000001</t>
+  </si>
+  <si>
+    <t>[Igual][iss.req.61.substring(6,7)][8]</t>
+  </si>
+  <si>
+    <t>[igual][iss.res.48.63][300129625412911]</t>
+  </si>
+  <si>
+    <t>[igual][iss.res.48.63][acq.res.63.20.substring(1,16)]</t>
+  </si>
+  <si>
+    <t>[igual][desc28.tknPJ][ER]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Se Aprobará la transaccion al Adquirente?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Se Aprobó la transaccion al Adquirente?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ SI / NO ]</t>
+    </r>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>PE-COF-OPAY-MC-ENROLAMIENTO_TRANTYPE81.uc</t>
+  </si>
+  <si>
+    <t>COF000000002</t>
+  </si>
+  <si>
+    <t>Enrolamiento COF con TranType=81</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>COF000000003</t>
+  </si>
+  <si>
+    <t>[igual][iss.req.48.63][acq.req.63.20.substring(1,16)]</t>
+  </si>
+  <si>
+    <t>[existe][iss.res.48.63]</t>
+  </si>
+  <si>
+    <t>[igual][desc28.tknPJ][MR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra Interred COF </t>
+  </si>
+  <si>
+    <t>[Igual][acq.req.22.1][iss.req.22.1]
+[Igual][acq.req.mti][0200]</t>
+  </si>
+  <si>
+    <t>ECOM00000001</t>
+  </si>
+  <si>
+    <t>Comercio electronico ECI 5</t>
+  </si>
+  <si>
+    <t>PE-ECOM-OPAY-VISA-COMPRA_ECI5.uc</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>TJP000000001</t>
+  </si>
+  <si>
+    <t>Reverso de TPVs PEM 05</t>
+  </si>
+  <si>
+    <t>PE-TJP-TPVS-VISA-PEM05_REVERSO_TKN_EZ.uc</t>
+  </si>
+  <si>
+    <t>[igual][acq.res.mti][0410]
+[igual][acq.res.19][604]
+[igual][acq.req.37][acq.res.37]
+[igual][acq.res.38][iss.res.38]
+[igual][acq.res.39][00]
+[igual][acq.res.56.07][VISA      ]
+[igual][acq.res.56.08][VISA      ]
+[igual][acq.res.56.09][VISA        ]
+[igual][acq.res.56.21][00]
+[existe][acq.res.56.0A]</t>
+  </si>
+  <si>
+    <t>[igual][iss.res.mti][0410]
+[igual][iss.res.39][00]
+[existe][iss.res.55.01]
+[existe][iss.res.90]</t>
+  </si>
+  <si>
+    <t>[igual][iss.req.mti][0400]
+[igual][iss.req.22.1][05]
+[igual][iss.req.25][00]
+[igual][iss.req.38][acq.req.38]
+[existe][iss.req.39]
+[existe][iss.req.55.01]
+[igual][iss.req.60.substring(6,7)][1]
+[igual][iss.req.62.1][A]
+[existe][iss.req.90]</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,8 +1346,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1730,6 +1859,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1737,7 +1890,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1885,6 +2038,15 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,6 +2119,96 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,15 +2239,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2021,87 +2264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2109,7 +2271,175 @@
     <cellStyle name="Estilo 1" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3551,64 +3881,113 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65662</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140742</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="937156" cy="754016"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="3 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="479319" y="336685"/>
+          <a:ext cx="937156" cy="754016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TablaHistorial" displayName="TablaHistorial" ref="C19:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TablaHistorial" displayName="TablaHistorial" ref="C19:F23" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="C19:F23"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Fecha" dataDxfId="58"/>
-    <tableColumn id="3" name="Versión" dataDxfId="57"/>
-    <tableColumn id="4" name="Descripción" dataDxfId="56"/>
-    <tableColumn id="7" name="Autor" dataDxfId="55"/>
+    <tableColumn id="1" name="Fecha" dataDxfId="72"/>
+    <tableColumn id="3" name="Versión" dataDxfId="71"/>
+    <tableColumn id="4" name="Descripción" dataDxfId="70"/>
+    <tableColumn id="7" name="Autor" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="C17:AN118" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="C17:AN118" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="C17:AN118"/>
   <tableColumns count="38">
-    <tableColumn id="1" name="ID Caso" dataDxfId="35"/>
-    <tableColumn id="7" name="Descripcion del Caso" dataDxfId="34"/>
-    <tableColumn id="28" name="Nombre Archivo SIM_QUEUE /FIMET" dataDxfId="33"/>
-    <tableColumn id="2" name="Tipo de Prueba_x000a__x000a_[ Validacion de Flujo / No Afectacion / Excepcion Flujo]" dataDxfId="32"/>
-    <tableColumn id="3" name="Tipo Operativa_x000a__x000a_[ Interredes / TPVs / Camara / Corresponsal / Banco / CEL ]" dataDxfId="31"/>
-    <tableColumn id="4" name="Nombre de Comercio o Entidad Adquirente" dataDxfId="30"/>
-    <tableColumn id="5" name="Nombre de Entidad o Institucion Financiera" dataDxfId="29"/>
+    <tableColumn id="1" name="ID Caso" dataDxfId="49"/>
+    <tableColumn id="7" name="Descripcion del Caso" dataDxfId="48"/>
+    <tableColumn id="28" name="Nombre Archivo SIM_QUEUE /FIMET" dataDxfId="47"/>
+    <tableColumn id="2" name="Tipo de Prueba_x000a__x000a_[ Validacion de Flujo / No Afectacion / Excepcion Flujo]" dataDxfId="46"/>
+    <tableColumn id="3" name="Tipo Operativa_x000a__x000a_[ Interredes / TPVs / Camara / Corresponsal / Banco / CEL ]" dataDxfId="45"/>
+    <tableColumn id="4" name="Nombre de Comercio o Entidad Adquirente" dataDxfId="44"/>
+    <tableColumn id="5" name="Nombre de Entidad o Institucion Financiera" dataDxfId="43"/>
     <tableColumn id="6" name="Tipo de Transaccion"/>
     <tableColumn id="8" name="Condiciones de Txn de Requerimiento Adquirente_x000a__x000a_DE# : [Valor del Campo]"/>
-    <tableColumn id="53" name="Timestamp" dataDxfId="28"/>
-    <tableColumn id="52" name="Tarjeta" dataDxfId="27"/>
-    <tableColumn id="40" name="Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="26"/>
-    <tableColumn id="11" name="Resultado Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="25"/>
-    <tableColumn id="38" name="Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="24"/>
-    <tableColumn id="12" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="23"/>
-    <tableColumn id="43" name="Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="22"/>
-    <tableColumn id="13" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="21"/>
-    <tableColumn id="44" name="Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="20"/>
-    <tableColumn id="16" name="Resultado Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="19"/>
-    <tableColumn id="56" name="Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="18"/>
-    <tableColumn id="17" name="Rsultado Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="17"/>
-    <tableColumn id="47" name="Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="16"/>
-    <tableColumn id="18" name="Resultado Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="15"/>
-    <tableColumn id="49" name="Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="14"/>
-    <tableColumn id="19" name="Resultado Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="13"/>
-    <tableColumn id="9" name="¿Fluirá al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="12"/>
-    <tableColumn id="35" name="¿Fluyó al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="11"/>
-    <tableColumn id="32" name="¿Fluirá al Risk Center?_x000a__x000a_[ SI / NO ]" dataDxfId="10"/>
-    <tableColumn id="36" name="¿Fluyó al RiskCenter?_x000a__x000a_[ SI / NO ]" dataDxfId="9"/>
-    <tableColumn id="55" name="¿Emisor Aprobará la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="8"/>
-    <tableColumn id="54" name="¿Emisor Aprobó la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="7"/>
-    <tableColumn id="10" name="¿Se Aprobará la transaccion?_x000a__x000a_[ SI / NO ]2" dataDxfId="6"/>
-    <tableColumn id="37" name="¿Se Aprobó la transaccion?_x000a__x000a_[ SI / NO ]3" dataDxfId="5"/>
-    <tableColumn id="14" name="Grabará en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="4"/>
-    <tableColumn id="50" name="Grabó en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="3"/>
-    <tableColumn id="15" name="Grabará el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO]" dataDxfId="2"/>
-    <tableColumn id="51" name="Grabó el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO ]" dataDxfId="1"/>
-    <tableColumn id="25" name="Dictamen del Caso de Prueba_x000a__x000a_[ EXITOSO / FALLIDO ]" dataDxfId="0">
+    <tableColumn id="53" name="Timestamp" dataDxfId="42"/>
+    <tableColumn id="52" name="Tarjeta" dataDxfId="41"/>
+    <tableColumn id="40" name="Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="40"/>
+    <tableColumn id="11" name="Resultado Condiciones Especiales_x000a_Txn de Requerimiento hacia Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="39"/>
+    <tableColumn id="38" name="Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="38"/>
+    <tableColumn id="12" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta del Emisor_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="37"/>
+    <tableColumn id="43" name="Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="36"/>
+    <tableColumn id="13" name="Resultado Condiciones Especiales _x000a_Txn de Respuesta hacia Adquirente_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="35"/>
+    <tableColumn id="44" name="Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo] " dataDxfId="34"/>
+    <tableColumn id="16" name="Resultado Condiciones Especiales _x000a_Txn de Requerimiento a RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="33"/>
+    <tableColumn id="56" name="Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="32"/>
+    <tableColumn id="17" name="Rsultado Condiciones Especiales _x000a_Txn de Respuesta del RiskCenter_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="31"/>
+    <tableColumn id="47" name="Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="30"/>
+    <tableColumn id="18" name="Resultado Condiciones Especiales _x000a_Txn de Guardado en Desc_x000a__x000a_Envio DE# : [Valor del Campo]" dataDxfId="29"/>
+    <tableColumn id="49" name="Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="28"/>
+    <tableColumn id="19" name="Resultado Conideraciones Extra a Revisar en la Prueba_x000a__x000a_CONSIDERACION" dataDxfId="27"/>
+    <tableColumn id="9" name="¿Fluirá al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="26"/>
+    <tableColumn id="35" name="¿Fluyó al Emisor?_x000a__x000a_[ SI / NO ]" dataDxfId="25"/>
+    <tableColumn id="32" name="¿Fluirá al Risk Center?_x000a__x000a_[ SI / NO ]" dataDxfId="24"/>
+    <tableColumn id="36" name="¿Fluyó al RiskCenter?_x000a__x000a_[ SI / NO ]" dataDxfId="23"/>
+    <tableColumn id="55" name="¿Emisor Aprobará la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="22"/>
+    <tableColumn id="54" name="¿Emisor Aprobó la transaccion?_x000a__x000a_[ SI / NO ]" dataDxfId="21"/>
+    <tableColumn id="10" name="¿Se Aprobará la transaccion al Adquirente?_x000a__x000a_[ SI / NO ]" dataDxfId="20"/>
+    <tableColumn id="37" name="¿Se Aprobó la transaccion al Adquirente?_x000a__x000a_[ SI / NO ]" dataDxfId="19"/>
+    <tableColumn id="14" name="Grabará en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="18"/>
+    <tableColumn id="50" name="Grabó en Base de Datos_x000a__x000a_Tabla: Transaction Log_x000a__x000a_[ SI / NO]" dataDxfId="17"/>
+    <tableColumn id="15" name="Grabará el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO]" dataDxfId="16"/>
+    <tableColumn id="51" name="Grabó el registro en Archivo DESC _x000a_(Base y/o Adicional)_x000a__x000a_[ SI / NO ]" dataDxfId="15"/>
+    <tableColumn id="25" name="Dictamen del Caso de Prueba_x000a__x000a_[ EXITOSO / FALLIDO ]" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(
 ISNUMBER(SEARCH("INCORRECTO",O18)),
 ISNUMBER(SEARCH("INCORRECTO",Q18)),
@@ -3631,7 +4010,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3901,7 +4280,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="8" customWidth="1"/>
@@ -3922,14 +4301,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3937,12 +4316,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3950,12 +4329,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3963,12 +4342,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3976,14 +4355,14 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -4018,11 +4397,11 @@
     </row>
     <row r="9" spans="2:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="23"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="4"/>
@@ -4033,10 +4412,10 @@
     </row>
     <row r="10" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="51" t="s">
         <v>16</v>
       </c>
@@ -4050,10 +4429,10 @@
     </row>
     <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="52" t="s">
         <v>17</v>
       </c>
@@ -4067,10 +4446,10 @@
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="52" t="s">
         <v>31</v>
       </c>
@@ -4084,10 +4463,10 @@
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="49" t="s">
         <v>18</v>
       </c>
@@ -4101,10 +4480,10 @@
     </row>
     <row r="14" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="49"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -4116,10 +4495,10 @@
     </row>
     <row r="15" spans="2:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="23"/>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="50"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -4157,12 +4536,12 @@
     </row>
     <row r="18" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -4306,20 +4685,24 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:BQ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="33" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="33" customWidth="1"/>
     <col min="4" max="4" width="54.5546875" style="33" customWidth="1"/>
     <col min="5" max="5" width="76" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" style="17" customWidth="1"/>
-    <col min="8" max="25" width="35.6640625" style="17" customWidth="1"/>
+    <col min="8" max="13" width="35.6640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="44.88671875" style="17" customWidth="1"/>
+    <col min="15" max="17" width="35.6640625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="42.5546875" style="17" customWidth="1"/>
+    <col min="19" max="25" width="35.6640625" style="17" customWidth="1"/>
     <col min="26" max="27" width="38.88671875" style="17" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" style="17" customWidth="1" collapsed="1"/>
     <col min="29" max="31" width="12.6640625" style="17" customWidth="1"/>
@@ -4340,221 +4723,221 @@
       <c r="AH1" s="21"/>
     </row>
     <row r="2" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="113" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="116"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="100"/>
     </row>
     <row r="3" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="120"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="104"/>
     </row>
     <row r="4" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="120"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="104"/>
     </row>
     <row r="5" spans="2:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="120"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="104"/>
     </row>
     <row r="6" spans="2:41" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="121" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="124"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="108"/>
     </row>
     <row r="7" spans="2:41" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="21"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -4570,98 +4953,98 @@
       <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128" t="str">
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$10), Historial_de_Versiones!$E$10,"")</f>
         <v>EGBMR210172</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="104" t="str">
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$11), Historial_de_Versiones!$E$11,"")</f>
         <v>BBVA Latam</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86" t="str">
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$12), Historial_de_Versiones!$E$12,"")</f>
         <v>BBVALatam [ 172.29..40.46 (Integracion) ]</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95" t="str">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="125" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$13),Historial_de_Versiones!$E$13,"")</f>
         <v>Febrero 2022 - Marzo 2022</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:41" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86" t="str">
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$14), Historial_de_Versiones!$E$14,"")</f>
         <v/>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:41" s="19" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101" t="str">
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131" t="str">
         <f>IF(ISTEXT(Historial_de_Versiones!$E$15), Historial_de_Versiones!$E$15,"")</f>
         <v/>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
@@ -4703,19 +5086,19 @@
       <c r="AN15" s="17"/>
     </row>
     <row r="16" spans="2:41" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="53"/>
       <c r="O16" s="55"/>
       <c r="P16" s="53"/>
@@ -4744,7 +5127,10 @@
       <c r="AM16" s="54"/>
       <c r="AN16" s="34"/>
     </row>
-    <row r="17" spans="3:40" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:40" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>137</v>
+      </c>
       <c r="C17" s="35" t="s">
         <v>8</v>
       </c>
@@ -4782,43 +5168,43 @@
         <v>20</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>22</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="V17" s="31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W17" s="32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Y17" s="32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Z17" s="31" t="s">
         <v>45</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AB17" s="31" t="s">
         <v>29</v>
@@ -4827,28 +5213,28 @@
         <v>26</v>
       </c>
       <c r="AD17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE17" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF17" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AE17" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF17" s="31" t="s">
-        <v>131</v>
-      </c>
       <c r="AG17" s="32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AH17" s="31" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AI17" s="32" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AJ17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="AK17" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AL17" s="31" t="s">
         <v>25</v>
@@ -4860,42 +5246,57 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R18" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>143</v>
+      <c r="X18" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL18" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN18" s="18" t="str">
         <f t="shared" ref="AN18:AN81" si="0">IF(OR(
@@ -4916,364 +5317,427 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="19" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="18">
-        <v>2</v>
+    <row r="19" spans="2:40" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="AB19" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH19" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ19" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL19" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="20" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="18">
-        <v>3</v>
+    <row r="20" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="AB20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="AF20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="21" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="18">
-        <v>4</v>
+    <row r="21" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="AB21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL21" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="22" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C22" s="18">
-        <v>5</v>
+    <row r="22" spans="2:40" s="18" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B22" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>134</v>
+        <v>168</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="AB22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL22" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="23" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C23" s="18">
         <v>6</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN23" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="24" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C24" s="18">
         <v>7</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL24" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN24" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="25" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C25" s="18">
         <v>8</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="N25" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL25" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN25" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="26" spans="3:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:40" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C26" s="18">
         <v>9</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="N26" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AD26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AJ26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AL26" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN26" s="18" t="str">
         <f t="shared" si="0"/>
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="27" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C27" s="18">
         <v>10</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O27" s="18"/>
       <c r="Q27" s="18"/>
@@ -5284,27 +5748,27 @@
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
       <c r="AB27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC27" s="18"/>
       <c r="AD27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE27" s="18"/>
       <c r="AF27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG27" s="18"/>
       <c r="AH27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK27" s="18"/>
       <c r="AL27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18" t="str">
@@ -5312,24 +5776,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="28" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C28" s="18">
         <v>11</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O28" s="18"/>
       <c r="Q28" s="18"/>
@@ -5340,27 +5807,27 @@
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
       <c r="AB28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC28" s="18"/>
       <c r="AD28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE28" s="18"/>
       <c r="AF28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG28" s="18"/>
       <c r="AH28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK28" s="18"/>
       <c r="AL28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18" t="str">
@@ -5368,24 +5835,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="29" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C29" s="18">
         <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O29" s="18"/>
       <c r="Q29" s="18"/>
@@ -5396,27 +5866,27 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC29" s="18"/>
       <c r="AD29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE29" s="18"/>
       <c r="AF29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG29" s="18"/>
       <c r="AH29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK29" s="18"/>
       <c r="AL29" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM29" s="18"/>
       <c r="AN29" s="18" t="str">
@@ -5424,24 +5894,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="30" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C30" s="18">
         <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O30" s="18"/>
       <c r="Q30" s="18"/>
@@ -5452,27 +5925,27 @@
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
       <c r="AB30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC30" s="18"/>
       <c r="AD30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE30" s="18"/>
       <c r="AF30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG30" s="18"/>
       <c r="AH30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM30" s="18"/>
       <c r="AN30" s="18" t="str">
@@ -5480,24 +5953,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="31" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C31" s="18">
         <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O31" s="18"/>
       <c r="Q31" s="18"/>
@@ -5508,27 +5984,27 @@
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
       <c r="AB31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC31" s="18"/>
       <c r="AD31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE31" s="18"/>
       <c r="AF31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG31" s="18"/>
       <c r="AH31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK31" s="18"/>
       <c r="AL31" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM31" s="18"/>
       <c r="AN31" s="18" t="str">
@@ -5536,24 +6012,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="32" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C32" s="18">
         <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O32" s="18"/>
       <c r="Q32" s="18"/>
@@ -5564,27 +6043,27 @@
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC32" s="18"/>
       <c r="AD32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE32" s="18"/>
       <c r="AF32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG32" s="18"/>
       <c r="AH32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK32" s="18"/>
       <c r="AL32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM32" s="18"/>
       <c r="AN32" s="18" t="str">
@@ -5592,24 +6071,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="33" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C33" s="18">
         <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O33" s="18"/>
       <c r="Q33" s="18"/>
@@ -5620,27 +6102,27 @@
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
       <c r="AB33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE33" s="18"/>
       <c r="AF33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG33" s="18"/>
       <c r="AH33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK33" s="18"/>
       <c r="AL33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM33" s="18"/>
       <c r="AN33" s="18" t="str">
@@ -5648,24 +6130,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="34" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C34" s="18">
         <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O34" s="18"/>
       <c r="Q34" s="18"/>
@@ -5676,27 +6161,27 @@
       <c r="Z34" s="18"/>
       <c r="AA34" s="18"/>
       <c r="AB34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC34" s="18"/>
       <c r="AD34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE34" s="18"/>
       <c r="AF34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG34" s="18"/>
       <c r="AH34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18" t="str">
@@ -5704,24 +6189,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="35" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C35" s="18">
         <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O35" s="18"/>
       <c r="Q35" s="18"/>
@@ -5732,27 +6220,27 @@
       <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
       <c r="AB35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE35" s="18"/>
       <c r="AF35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG35" s="18"/>
       <c r="AH35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI35" s="18"/>
       <c r="AJ35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK35" s="18"/>
       <c r="AL35" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM35" s="18"/>
       <c r="AN35" s="18" t="str">
@@ -5760,24 +6248,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="36" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C36" s="18">
         <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O36" s="18"/>
       <c r="Q36" s="18"/>
@@ -5788,27 +6279,27 @@
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
       <c r="AB36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC36" s="18"/>
       <c r="AD36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE36" s="18"/>
       <c r="AF36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG36" s="18"/>
       <c r="AH36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK36" s="18"/>
       <c r="AL36" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM36" s="18"/>
       <c r="AN36" s="18" t="str">
@@ -5816,24 +6307,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="37" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C37" s="18">
         <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O37" s="18"/>
       <c r="Q37" s="18"/>
@@ -5844,27 +6338,27 @@
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC37" s="18"/>
       <c r="AD37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE37" s="18"/>
       <c r="AF37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG37" s="18"/>
       <c r="AH37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI37" s="18"/>
       <c r="AJ37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK37" s="18"/>
       <c r="AL37" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM37" s="18"/>
       <c r="AN37" s="18" t="str">
@@ -5872,24 +6366,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="38" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C38" s="18">
         <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O38" s="18"/>
       <c r="Q38" s="18"/>
@@ -5900,27 +6397,27 @@
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
       <c r="AB38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC38" s="18"/>
       <c r="AD38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE38" s="18"/>
       <c r="AF38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG38" s="18"/>
       <c r="AH38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK38" s="18"/>
       <c r="AL38" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM38" s="18"/>
       <c r="AN38" s="18" t="str">
@@ -5928,24 +6425,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="39" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C39" s="18">
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O39" s="18"/>
       <c r="Q39" s="18"/>
@@ -5956,27 +6456,27 @@
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
       <c r="AB39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC39" s="18"/>
       <c r="AD39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE39" s="18"/>
       <c r="AF39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG39" s="18"/>
       <c r="AH39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI39" s="18"/>
       <c r="AJ39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK39" s="18"/>
       <c r="AL39" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM39" s="18"/>
       <c r="AN39" s="18" t="str">
@@ -5984,24 +6484,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="40" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C40" s="18">
         <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O40" s="18"/>
       <c r="Q40" s="18"/>
@@ -6012,27 +6515,27 @@
       <c r="Z40" s="18"/>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC40" s="18"/>
       <c r="AD40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE40" s="18"/>
       <c r="AF40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG40" s="18"/>
       <c r="AH40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI40" s="18"/>
       <c r="AJ40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK40" s="18"/>
       <c r="AL40" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM40" s="18"/>
       <c r="AN40" s="18" t="str">
@@ -6040,24 +6543,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="41" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C41" s="18">
         <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O41" s="18"/>
       <c r="Q41" s="18"/>
@@ -6068,27 +6574,27 @@
       <c r="Z41" s="18"/>
       <c r="AA41" s="18"/>
       <c r="AB41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC41" s="18"/>
       <c r="AD41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE41" s="18"/>
       <c r="AF41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG41" s="18"/>
       <c r="AH41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI41" s="18"/>
       <c r="AJ41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK41" s="18"/>
       <c r="AL41" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM41" s="18"/>
       <c r="AN41" s="18" t="str">
@@ -6096,24 +6602,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="42" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C42" s="18">
         <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O42" s="18"/>
       <c r="Q42" s="18"/>
@@ -6124,27 +6633,27 @@
       <c r="Z42" s="18"/>
       <c r="AA42" s="18"/>
       <c r="AB42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC42" s="18"/>
       <c r="AD42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE42" s="18"/>
       <c r="AF42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG42" s="18"/>
       <c r="AH42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI42" s="18"/>
       <c r="AJ42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK42" s="18"/>
       <c r="AL42" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM42" s="18"/>
       <c r="AN42" s="18" t="str">
@@ -6152,24 +6661,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="43" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C43" s="18">
         <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O43" s="18"/>
       <c r="Q43" s="18"/>
@@ -6180,27 +6692,27 @@
       <c r="Z43" s="18"/>
       <c r="AA43" s="18"/>
       <c r="AB43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE43" s="18"/>
       <c r="AF43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG43" s="18"/>
       <c r="AH43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI43" s="18"/>
       <c r="AJ43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK43" s="18"/>
       <c r="AL43" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM43" s="18"/>
       <c r="AN43" s="18" t="str">
@@ -6208,24 +6720,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="44" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C44" s="18">
         <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O44" s="18"/>
       <c r="Q44" s="18"/>
@@ -6236,27 +6751,27 @@
       <c r="Z44" s="18"/>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC44" s="18"/>
       <c r="AD44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE44" s="18"/>
       <c r="AF44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG44" s="18"/>
       <c r="AH44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI44" s="18"/>
       <c r="AJ44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK44" s="18"/>
       <c r="AL44" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM44" s="18"/>
       <c r="AN44" s="18" t="str">
@@ -6264,24 +6779,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="45" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C45" s="18">
         <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O45" s="18"/>
       <c r="Q45" s="18"/>
@@ -6292,27 +6810,27 @@
       <c r="Z45" s="18"/>
       <c r="AA45" s="18"/>
       <c r="AB45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC45" s="18"/>
       <c r="AD45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE45" s="18"/>
       <c r="AF45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG45" s="18"/>
       <c r="AH45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI45" s="18"/>
       <c r="AJ45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK45" s="18"/>
       <c r="AL45" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM45" s="18"/>
       <c r="AN45" s="18" t="str">
@@ -6320,24 +6838,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="46" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C46" s="18">
         <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O46" s="18"/>
       <c r="Q46" s="18"/>
@@ -6348,27 +6869,27 @@
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC46" s="18"/>
       <c r="AD46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE46" s="18"/>
       <c r="AF46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG46" s="18"/>
       <c r="AH46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK46" s="18"/>
       <c r="AL46" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM46" s="18"/>
       <c r="AN46" s="18" t="str">
@@ -6376,24 +6897,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="47" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C47" s="18">
         <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O47" s="18"/>
       <c r="Q47" s="18"/>
@@ -6404,27 +6928,27 @@
       <c r="Z47" s="18"/>
       <c r="AA47" s="18"/>
       <c r="AB47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC47" s="18"/>
       <c r="AD47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE47" s="18"/>
       <c r="AF47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG47" s="18"/>
       <c r="AH47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK47" s="18"/>
       <c r="AL47" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM47" s="18"/>
       <c r="AN47" s="18" t="str">
@@ -6432,24 +6956,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="48" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C48" s="18">
         <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O48" s="18"/>
       <c r="Q48" s="18"/>
@@ -6460,27 +6987,27 @@
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC48" s="18"/>
       <c r="AD48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE48" s="18"/>
       <c r="AF48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG48" s="18"/>
       <c r="AH48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK48" s="18"/>
       <c r="AL48" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM48" s="18"/>
       <c r="AN48" s="18" t="str">
@@ -6488,24 +7015,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="49" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C49" s="18">
         <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O49" s="18"/>
       <c r="Q49" s="18"/>
@@ -6516,27 +7046,27 @@
       <c r="Z49" s="18"/>
       <c r="AA49" s="18"/>
       <c r="AB49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC49" s="18"/>
       <c r="AD49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE49" s="18"/>
       <c r="AF49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG49" s="18"/>
       <c r="AH49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI49" s="18"/>
       <c r="AJ49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK49" s="18"/>
       <c r="AL49" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM49" s="18"/>
       <c r="AN49" s="18" t="str">
@@ -6544,24 +7074,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="50" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C50" s="18">
         <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O50" s="18"/>
       <c r="Q50" s="18"/>
@@ -6572,27 +7105,27 @@
       <c r="Z50" s="18"/>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC50" s="18"/>
       <c r="AD50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE50" s="18"/>
       <c r="AF50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG50" s="18"/>
       <c r="AH50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK50" s="18"/>
       <c r="AL50" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM50" s="18"/>
       <c r="AN50" s="18" t="str">
@@ -6600,24 +7133,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="51" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C51" s="18">
         <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O51" s="18"/>
       <c r="Q51" s="18"/>
@@ -6628,27 +7164,27 @@
       <c r="Z51" s="18"/>
       <c r="AA51" s="18"/>
       <c r="AB51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC51" s="18"/>
       <c r="AD51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE51" s="18"/>
       <c r="AF51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG51" s="18"/>
       <c r="AH51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK51" s="18"/>
       <c r="AL51" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM51" s="18"/>
       <c r="AN51" s="18" t="str">
@@ -6656,24 +7192,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="52" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C52" s="18">
         <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O52" s="18"/>
       <c r="Q52" s="18"/>
@@ -6684,27 +7223,27 @@
       <c r="Z52" s="18"/>
       <c r="AA52" s="18"/>
       <c r="AB52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE52" s="18"/>
       <c r="AF52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG52" s="18"/>
       <c r="AH52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI52" s="18"/>
       <c r="AJ52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK52" s="18"/>
       <c r="AL52" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM52" s="18"/>
       <c r="AN52" s="18" t="str">
@@ -6712,24 +7251,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="53" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C53" s="18">
         <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O53" s="18"/>
       <c r="Q53" s="18"/>
@@ -6740,27 +7282,27 @@
       <c r="Z53" s="18"/>
       <c r="AA53" s="18"/>
       <c r="AB53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC53" s="18"/>
       <c r="AD53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE53" s="18"/>
       <c r="AF53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG53" s="18"/>
       <c r="AH53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI53" s="18"/>
       <c r="AJ53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK53" s="18"/>
       <c r="AL53" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM53" s="18"/>
       <c r="AN53" s="18" t="str">
@@ -6768,24 +7310,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="54" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C54" s="18">
         <v>37</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O54" s="18"/>
       <c r="Q54" s="18"/>
@@ -6796,27 +7341,27 @@
       <c r="Z54" s="18"/>
       <c r="AA54" s="18"/>
       <c r="AB54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC54" s="18"/>
       <c r="AD54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE54" s="18"/>
       <c r="AF54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG54" s="18"/>
       <c r="AH54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI54" s="18"/>
       <c r="AJ54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK54" s="18"/>
       <c r="AL54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM54" s="18"/>
       <c r="AN54" s="18" t="str">
@@ -6824,24 +7369,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="55" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C55" s="18">
         <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O55" s="18"/>
       <c r="Q55" s="18"/>
@@ -6852,27 +7400,27 @@
       <c r="Z55" s="18"/>
       <c r="AA55" s="18"/>
       <c r="AB55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC55" s="18"/>
       <c r="AD55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE55" s="18"/>
       <c r="AF55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG55" s="18"/>
       <c r="AH55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI55" s="18"/>
       <c r="AJ55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK55" s="18"/>
       <c r="AL55" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM55" s="18"/>
       <c r="AN55" s="18" t="str">
@@ -6880,24 +7428,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="56" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C56" s="18">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O56" s="18"/>
       <c r="Q56" s="18"/>
@@ -6908,27 +7459,27 @@
       <c r="Z56" s="18"/>
       <c r="AA56" s="18"/>
       <c r="AB56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC56" s="18"/>
       <c r="AD56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE56" s="18"/>
       <c r="AF56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG56" s="18"/>
       <c r="AH56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI56" s="18"/>
       <c r="AJ56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK56" s="18"/>
       <c r="AL56" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM56" s="18"/>
       <c r="AN56" s="18" t="str">
@@ -6936,24 +7487,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="57" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C57" s="18">
         <v>40</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O57" s="18"/>
       <c r="Q57" s="18"/>
@@ -6964,27 +7518,27 @@
       <c r="Z57" s="18"/>
       <c r="AA57" s="18"/>
       <c r="AB57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE57" s="18"/>
       <c r="AF57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG57" s="18"/>
       <c r="AH57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI57" s="18"/>
       <c r="AJ57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK57" s="18"/>
       <c r="AL57" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18" t="str">
@@ -6992,24 +7546,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="58" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C58" s="18">
         <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O58" s="18"/>
       <c r="Q58" s="18"/>
@@ -7020,27 +7577,27 @@
       <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
       <c r="AB58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC58" s="18"/>
       <c r="AD58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE58" s="18"/>
       <c r="AF58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG58" s="18"/>
       <c r="AH58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI58" s="18"/>
       <c r="AJ58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK58" s="18"/>
       <c r="AL58" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM58" s="18"/>
       <c r="AN58" s="18" t="str">
@@ -7048,24 +7605,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="59" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C59" s="18">
         <v>42</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O59" s="18"/>
       <c r="Q59" s="18"/>
@@ -7076,27 +7636,27 @@
       <c r="Z59" s="18"/>
       <c r="AA59" s="18"/>
       <c r="AB59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE59" s="18"/>
       <c r="AF59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG59" s="18"/>
       <c r="AH59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI59" s="18"/>
       <c r="AJ59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK59" s="18"/>
       <c r="AL59" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM59" s="18"/>
       <c r="AN59" s="18" t="str">
@@ -7104,24 +7664,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="60" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C60" s="18">
         <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O60" s="18"/>
       <c r="Q60" s="18"/>
@@ -7132,27 +7695,27 @@
       <c r="Z60" s="18"/>
       <c r="AA60" s="18"/>
       <c r="AB60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC60" s="18"/>
       <c r="AD60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE60" s="18"/>
       <c r="AF60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG60" s="18"/>
       <c r="AH60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI60" s="18"/>
       <c r="AJ60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK60" s="18"/>
       <c r="AL60" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM60" s="18"/>
       <c r="AN60" s="18" t="str">
@@ -7160,24 +7723,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="61" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C61" s="18">
         <v>44</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O61" s="18"/>
       <c r="Q61" s="18"/>
@@ -7188,27 +7754,27 @@
       <c r="Z61" s="18"/>
       <c r="AA61" s="18"/>
       <c r="AB61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE61" s="18"/>
       <c r="AF61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG61" s="18"/>
       <c r="AH61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI61" s="18"/>
       <c r="AJ61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK61" s="18"/>
       <c r="AL61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM61" s="18"/>
       <c r="AN61" s="18" t="str">
@@ -7216,24 +7782,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="62" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C62" s="18">
         <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O62" s="18"/>
       <c r="Q62" s="18"/>
@@ -7244,27 +7813,27 @@
       <c r="Z62" s="18"/>
       <c r="AA62" s="18"/>
       <c r="AB62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC62" s="18"/>
       <c r="AD62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE62" s="18"/>
       <c r="AF62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG62" s="18"/>
       <c r="AH62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI62" s="18"/>
       <c r="AJ62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK62" s="18"/>
       <c r="AL62" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM62" s="18"/>
       <c r="AN62" s="18" t="str">
@@ -7272,24 +7841,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="63" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C63" s="18">
         <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O63" s="18"/>
       <c r="Q63" s="18"/>
@@ -7300,27 +7872,27 @@
       <c r="Z63" s="18"/>
       <c r="AA63" s="18"/>
       <c r="AB63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC63" s="18"/>
       <c r="AD63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE63" s="18"/>
       <c r="AF63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG63" s="18"/>
       <c r="AH63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI63" s="18"/>
       <c r="AJ63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK63" s="18"/>
       <c r="AL63" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM63" s="18"/>
       <c r="AN63" s="18" t="str">
@@ -7328,24 +7900,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="64" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C64" s="18">
         <v>47</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O64" s="18"/>
       <c r="Q64" s="18"/>
@@ -7356,27 +7931,27 @@
       <c r="Z64" s="18"/>
       <c r="AA64" s="18"/>
       <c r="AB64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC64" s="18"/>
       <c r="AD64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE64" s="18"/>
       <c r="AF64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG64" s="18"/>
       <c r="AH64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI64" s="18"/>
       <c r="AJ64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK64" s="18"/>
       <c r="AL64" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM64" s="18"/>
       <c r="AN64" s="18" t="str">
@@ -7384,24 +7959,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="65" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B65" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C65" s="18">
         <v>48</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O65" s="18"/>
       <c r="Q65" s="18"/>
@@ -7412,27 +7990,27 @@
       <c r="Z65" s="18"/>
       <c r="AA65" s="18"/>
       <c r="AB65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC65" s="18"/>
       <c r="AD65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE65" s="18"/>
       <c r="AF65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG65" s="18"/>
       <c r="AH65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI65" s="18"/>
       <c r="AJ65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK65" s="18"/>
       <c r="AL65" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM65" s="18"/>
       <c r="AN65" s="18" t="str">
@@ -7440,24 +8018,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="66" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C66" s="18">
         <v>49</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O66" s="18"/>
       <c r="Q66" s="18"/>
@@ -7468,27 +8049,27 @@
       <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
       <c r="AB66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC66" s="18"/>
       <c r="AD66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE66" s="18"/>
       <c r="AF66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG66" s="18"/>
       <c r="AH66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI66" s="18"/>
       <c r="AJ66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK66" s="18"/>
       <c r="AL66" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM66" s="18"/>
       <c r="AN66" s="18" t="str">
@@ -7496,24 +8077,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="67" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C67" s="18">
         <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O67" s="18"/>
       <c r="Q67" s="18"/>
@@ -7524,27 +8108,27 @@
       <c r="Z67" s="18"/>
       <c r="AA67" s="18"/>
       <c r="AB67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC67" s="18"/>
       <c r="AD67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE67" s="18"/>
       <c r="AF67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG67" s="18"/>
       <c r="AH67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI67" s="18"/>
       <c r="AJ67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK67" s="18"/>
       <c r="AL67" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM67" s="18"/>
       <c r="AN67" s="18" t="str">
@@ -7552,24 +8136,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="68" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" s="18">
         <v>51</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O68" s="18"/>
       <c r="Q68" s="18"/>
@@ -7580,27 +8167,27 @@
       <c r="Z68" s="18"/>
       <c r="AA68" s="18"/>
       <c r="AB68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC68" s="18"/>
       <c r="AD68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE68" s="18"/>
       <c r="AF68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG68" s="18"/>
       <c r="AH68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI68" s="18"/>
       <c r="AJ68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK68" s="18"/>
       <c r="AL68" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM68" s="18"/>
       <c r="AN68" s="18" t="str">
@@ -7608,24 +8195,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="69" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C69" s="18">
         <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O69" s="18"/>
       <c r="Q69" s="18"/>
@@ -7636,27 +8226,27 @@
       <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
       <c r="AB69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC69" s="18"/>
       <c r="AD69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE69" s="18"/>
       <c r="AF69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG69" s="18"/>
       <c r="AH69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI69" s="18"/>
       <c r="AJ69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK69" s="18"/>
       <c r="AL69" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM69" s="18"/>
       <c r="AN69" s="18" t="str">
@@ -7664,24 +8254,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="70" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C70" s="18">
         <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O70" s="18"/>
       <c r="Q70" s="18"/>
@@ -7692,27 +8285,27 @@
       <c r="Z70" s="18"/>
       <c r="AA70" s="18"/>
       <c r="AB70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC70" s="18"/>
       <c r="AD70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE70" s="18"/>
       <c r="AF70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG70" s="18"/>
       <c r="AH70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI70" s="18"/>
       <c r="AJ70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK70" s="18"/>
       <c r="AL70" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM70" s="18"/>
       <c r="AN70" s="18" t="str">
@@ -7720,24 +8313,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="71" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C71" s="18">
         <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O71" s="18"/>
       <c r="Q71" s="18"/>
@@ -7748,27 +8344,27 @@
       <c r="Z71" s="18"/>
       <c r="AA71" s="18"/>
       <c r="AB71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC71" s="18"/>
       <c r="AD71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE71" s="18"/>
       <c r="AF71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG71" s="18"/>
       <c r="AH71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI71" s="18"/>
       <c r="AJ71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK71" s="18"/>
       <c r="AL71" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM71" s="18"/>
       <c r="AN71" s="18" t="str">
@@ -7776,24 +8372,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="72" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C72" s="18">
         <v>55</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O72" s="18"/>
       <c r="Q72" s="18"/>
@@ -7804,27 +8403,27 @@
       <c r="Z72" s="18"/>
       <c r="AA72" s="18"/>
       <c r="AB72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC72" s="18"/>
       <c r="AD72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE72" s="18"/>
       <c r="AF72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG72" s="18"/>
       <c r="AH72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI72" s="18"/>
       <c r="AJ72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK72" s="18"/>
       <c r="AL72" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM72" s="18"/>
       <c r="AN72" s="18" t="str">
@@ -7832,24 +8431,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="73" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C73" s="18">
         <v>56</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O73" s="18"/>
       <c r="Q73" s="18"/>
@@ -7860,27 +8462,27 @@
       <c r="Z73" s="18"/>
       <c r="AA73" s="18"/>
       <c r="AB73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC73" s="18"/>
       <c r="AD73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE73" s="18"/>
       <c r="AF73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG73" s="18"/>
       <c r="AH73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI73" s="18"/>
       <c r="AJ73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK73" s="18"/>
       <c r="AL73" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM73" s="18"/>
       <c r="AN73" s="18" t="str">
@@ -7888,24 +8490,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="74" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C74" s="18">
         <v>57</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O74" s="18"/>
       <c r="Q74" s="18"/>
@@ -7916,27 +8521,27 @@
       <c r="Z74" s="18"/>
       <c r="AA74" s="18"/>
       <c r="AB74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC74" s="18"/>
       <c r="AD74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE74" s="18"/>
       <c r="AF74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG74" s="18"/>
       <c r="AH74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI74" s="18"/>
       <c r="AJ74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK74" s="18"/>
       <c r="AL74" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM74" s="18"/>
       <c r="AN74" s="18" t="str">
@@ -7944,24 +8549,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="75" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C75" s="18">
         <v>58</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O75" s="18"/>
       <c r="Q75" s="18"/>
@@ -7972,27 +8580,27 @@
       <c r="Z75" s="18"/>
       <c r="AA75" s="18"/>
       <c r="AB75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC75" s="18"/>
       <c r="AD75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE75" s="18"/>
       <c r="AF75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG75" s="18"/>
       <c r="AH75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI75" s="18"/>
       <c r="AJ75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK75" s="18"/>
       <c r="AL75" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM75" s="18"/>
       <c r="AN75" s="18" t="str">
@@ -8000,24 +8608,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="76" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C76" s="18">
         <v>59</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O76" s="18"/>
       <c r="Q76" s="18"/>
@@ -8028,27 +8639,27 @@
       <c r="Z76" s="18"/>
       <c r="AA76" s="18"/>
       <c r="AB76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC76" s="18"/>
       <c r="AD76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE76" s="18"/>
       <c r="AF76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG76" s="18"/>
       <c r="AH76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI76" s="18"/>
       <c r="AJ76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK76" s="18"/>
       <c r="AL76" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM76" s="18"/>
       <c r="AN76" s="18" t="str">
@@ -8056,24 +8667,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="77" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C77" s="18">
         <v>60</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O77" s="18"/>
       <c r="Q77" s="18"/>
@@ -8084,27 +8698,27 @@
       <c r="Z77" s="18"/>
       <c r="AA77" s="18"/>
       <c r="AB77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC77" s="18"/>
       <c r="AD77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE77" s="18"/>
       <c r="AF77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG77" s="18"/>
       <c r="AH77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI77" s="18"/>
       <c r="AJ77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK77" s="18"/>
       <c r="AL77" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM77" s="18"/>
       <c r="AN77" s="18" t="str">
@@ -8112,24 +8726,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="78" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C78" s="18">
         <v>61</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O78" s="18"/>
       <c r="Q78" s="18"/>
@@ -8140,27 +8757,27 @@
       <c r="Z78" s="18"/>
       <c r="AA78" s="18"/>
       <c r="AB78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC78" s="18"/>
       <c r="AD78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE78" s="18"/>
       <c r="AF78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG78" s="18"/>
       <c r="AH78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI78" s="18"/>
       <c r="AJ78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK78" s="18"/>
       <c r="AL78" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM78" s="18"/>
       <c r="AN78" s="18" t="str">
@@ -8168,24 +8785,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="79" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C79" s="18">
         <v>62</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O79" s="18"/>
       <c r="Q79" s="18"/>
@@ -8196,27 +8816,27 @@
       <c r="Z79" s="18"/>
       <c r="AA79" s="18"/>
       <c r="AB79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC79" s="18"/>
       <c r="AD79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE79" s="18"/>
       <c r="AF79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG79" s="18"/>
       <c r="AH79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI79" s="18"/>
       <c r="AJ79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK79" s="18"/>
       <c r="AL79" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM79" s="18"/>
       <c r="AN79" s="18" t="str">
@@ -8224,24 +8844,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="80" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C80" s="18">
         <v>63</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O80" s="18"/>
       <c r="Q80" s="18"/>
@@ -8252,27 +8875,27 @@
       <c r="Z80" s="18"/>
       <c r="AA80" s="18"/>
       <c r="AB80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC80" s="18"/>
       <c r="AD80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE80" s="18"/>
       <c r="AF80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG80" s="18"/>
       <c r="AH80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI80" s="18"/>
       <c r="AJ80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK80" s="18"/>
       <c r="AL80" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM80" s="18"/>
       <c r="AN80" s="18" t="str">
@@ -8280,24 +8903,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="81" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C81" s="18">
         <v>64</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O81" s="18"/>
       <c r="Q81" s="18"/>
@@ -8308,27 +8934,27 @@
       <c r="Z81" s="18"/>
       <c r="AA81" s="18"/>
       <c r="AB81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC81" s="18"/>
       <c r="AD81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE81" s="18"/>
       <c r="AF81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG81" s="18"/>
       <c r="AH81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI81" s="18"/>
       <c r="AJ81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK81" s="18"/>
       <c r="AL81" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM81" s="18"/>
       <c r="AN81" s="18" t="str">
@@ -8336,24 +8962,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="82" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C82" s="18">
         <v>65</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O82" s="18"/>
       <c r="Q82" s="18"/>
@@ -8364,27 +8993,27 @@
       <c r="Z82" s="18"/>
       <c r="AA82" s="18"/>
       <c r="AB82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC82" s="18"/>
       <c r="AD82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE82" s="18"/>
       <c r="AF82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG82" s="18"/>
       <c r="AH82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI82" s="18"/>
       <c r="AJ82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK82" s="18"/>
       <c r="AL82" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM82" s="18"/>
       <c r="AN82" s="18" t="str">
@@ -8406,24 +9035,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="83" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C83" s="18">
         <v>66</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O83" s="18"/>
       <c r="Q83" s="18"/>
@@ -8434,27 +9066,27 @@
       <c r="Z83" s="18"/>
       <c r="AA83" s="18"/>
       <c r="AB83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC83" s="18"/>
       <c r="AD83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE83" s="18"/>
       <c r="AF83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG83" s="18"/>
       <c r="AH83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI83" s="18"/>
       <c r="AJ83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK83" s="18"/>
       <c r="AL83" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM83" s="18"/>
       <c r="AN83" s="18" t="str">
@@ -8462,24 +9094,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="84" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B84" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C84" s="18">
         <v>67</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O84" s="18"/>
       <c r="Q84" s="18"/>
@@ -8490,27 +9125,27 @@
       <c r="Z84" s="18"/>
       <c r="AA84" s="18"/>
       <c r="AB84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC84" s="18"/>
       <c r="AD84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE84" s="18"/>
       <c r="AF84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG84" s="18"/>
       <c r="AH84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI84" s="18"/>
       <c r="AJ84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK84" s="18"/>
       <c r="AL84" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM84" s="18"/>
       <c r="AN84" s="18" t="str">
@@ -8518,24 +9153,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="85" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B85" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C85" s="18">
         <v>68</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O85" s="18"/>
       <c r="Q85" s="18"/>
@@ -8546,27 +9184,27 @@
       <c r="Z85" s="18"/>
       <c r="AA85" s="18"/>
       <c r="AB85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC85" s="18"/>
       <c r="AD85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE85" s="18"/>
       <c r="AF85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG85" s="18"/>
       <c r="AH85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI85" s="18"/>
       <c r="AJ85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK85" s="18"/>
       <c r="AL85" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM85" s="18"/>
       <c r="AN85" s="18" t="str">
@@ -8574,24 +9212,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="86" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C86" s="18">
         <v>69</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O86" s="18"/>
       <c r="Q86" s="18"/>
@@ -8602,27 +9243,27 @@
       <c r="Z86" s="18"/>
       <c r="AA86" s="18"/>
       <c r="AB86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC86" s="18"/>
       <c r="AD86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE86" s="18"/>
       <c r="AF86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG86" s="18"/>
       <c r="AH86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI86" s="18"/>
       <c r="AJ86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK86" s="18"/>
       <c r="AL86" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM86" s="18"/>
       <c r="AN86" s="18" t="str">
@@ -8630,24 +9271,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="87" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C87" s="18">
         <v>70</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O87" s="18"/>
       <c r="Q87" s="18"/>
@@ -8658,27 +9302,27 @@
       <c r="Z87" s="18"/>
       <c r="AA87" s="18"/>
       <c r="AB87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC87" s="18"/>
       <c r="AD87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE87" s="18"/>
       <c r="AF87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG87" s="18"/>
       <c r="AH87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI87" s="18"/>
       <c r="AJ87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK87" s="18"/>
       <c r="AL87" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM87" s="18"/>
       <c r="AN87" s="18" t="str">
@@ -8686,24 +9330,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="88" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C88" s="18">
         <v>71</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O88" s="18"/>
       <c r="Q88" s="18"/>
@@ -8714,27 +9361,27 @@
       <c r="Z88" s="18"/>
       <c r="AA88" s="18"/>
       <c r="AB88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC88" s="18"/>
       <c r="AD88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE88" s="18"/>
       <c r="AF88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG88" s="18"/>
       <c r="AH88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI88" s="18"/>
       <c r="AJ88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK88" s="18"/>
       <c r="AL88" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM88" s="18"/>
       <c r="AN88" s="18" t="str">
@@ -8742,24 +9389,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="89" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C89" s="18">
         <v>72</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E89" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="G89" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O89" s="18"/>
       <c r="Q89" s="18"/>
@@ -8770,27 +9420,27 @@
       <c r="Z89" s="18"/>
       <c r="AA89" s="18"/>
       <c r="AB89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC89" s="18"/>
       <c r="AD89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE89" s="18"/>
       <c r="AF89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG89" s="18"/>
       <c r="AH89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI89" s="18"/>
       <c r="AJ89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK89" s="18"/>
       <c r="AL89" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM89" s="18"/>
       <c r="AN89" s="18" t="str">
@@ -8798,24 +9448,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="90" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="58" t="s">
+        <v>138</v>
+      </c>
       <c r="C90" s="18">
         <v>73</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E90" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="N90" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O90" s="18"/>
       <c r="Q90" s="18"/>
@@ -8826,27 +9479,27 @@
       <c r="Z90" s="18"/>
       <c r="AA90" s="18"/>
       <c r="AB90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC90" s="18"/>
       <c r="AD90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE90" s="18"/>
       <c r="AF90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG90" s="18"/>
       <c r="AH90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI90" s="18"/>
       <c r="AJ90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK90" s="18"/>
       <c r="AL90" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM90" s="18"/>
       <c r="AN90" s="18" t="str">
@@ -8854,24 +9507,27 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="91" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="59" t="s">
+        <v>138</v>
+      </c>
       <c r="C91" s="18">
         <v>74</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O91" s="18"/>
       <c r="Q91" s="18"/>
@@ -8882,27 +9538,27 @@
       <c r="Z91" s="18"/>
       <c r="AA91" s="18"/>
       <c r="AB91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE91" s="18"/>
       <c r="AF91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG91" s="18"/>
       <c r="AH91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AI91" s="18"/>
       <c r="AJ91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK91" s="18"/>
       <c r="AL91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM91" s="18"/>
       <c r="AN91" s="18" t="str">
@@ -8910,7 +9566,8 @@
         <v>FALLIDO</v>
       </c>
     </row>
-    <row r="92" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B92" s="58"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
@@ -8932,7 +9589,8 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="18"/>
     </row>
-    <row r="93" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B93" s="59"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
@@ -8954,7 +9612,8 @@
       <c r="AM93" s="18"/>
       <c r="AN93" s="18"/>
     </row>
-    <row r="94" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B94" s="58"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
@@ -8976,7 +9635,8 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="18"/>
     </row>
-    <row r="95" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B95" s="59"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
@@ -8998,7 +9658,8 @@
       <c r="AM95" s="18"/>
       <c r="AN95" s="18"/>
     </row>
-    <row r="96" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B96" s="58"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -9020,7 +9681,8 @@
       <c r="AM96" s="18"/>
       <c r="AN96" s="18"/>
     </row>
-    <row r="97" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B97" s="59"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
@@ -9042,7 +9704,8 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="18"/>
     </row>
-    <row r="98" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B98" s="58"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -9064,7 +9727,8 @@
       <c r="AM98" s="18"/>
       <c r="AN98" s="18"/>
     </row>
-    <row r="99" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B99" s="59"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
@@ -9086,7 +9750,8 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="18"/>
     </row>
-    <row r="100" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B100" s="58"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
@@ -9108,7 +9773,8 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="18"/>
     </row>
-    <row r="101" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B101" s="59"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -9130,7 +9796,8 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="18"/>
     </row>
-    <row r="102" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B102" s="58"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
@@ -9152,7 +9819,8 @@
       <c r="AM102" s="18"/>
       <c r="AN102" s="18"/>
     </row>
-    <row r="103" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B103" s="59"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
@@ -9174,7 +9842,8 @@
       <c r="AM103" s="18"/>
       <c r="AN103" s="18"/>
     </row>
-    <row r="104" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B104" s="58"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
@@ -9196,7 +9865,8 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="18"/>
     </row>
-    <row r="105" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B105" s="59"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
@@ -9218,7 +9888,8 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="18"/>
     </row>
-    <row r="106" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B106" s="58"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
@@ -9240,7 +9911,8 @@
       <c r="AM106" s="18"/>
       <c r="AN106" s="18"/>
     </row>
-    <row r="107" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B107" s="59"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
@@ -9262,7 +9934,8 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="18"/>
     </row>
-    <row r="108" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B108" s="58"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
@@ -9284,7 +9957,8 @@
       <c r="AM108" s="18"/>
       <c r="AN108" s="18"/>
     </row>
-    <row r="109" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B109" s="59"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
@@ -9306,7 +9980,8 @@
       <c r="AM109" s="18"/>
       <c r="AN109" s="18"/>
     </row>
-    <row r="110" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B110" s="58"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
@@ -9328,7 +10003,8 @@
       <c r="AM110" s="18"/>
       <c r="AN110" s="18"/>
     </row>
-    <row r="111" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B111" s="59"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
@@ -9350,7 +10026,8 @@
       <c r="AM111" s="18"/>
       <c r="AN111" s="18"/>
     </row>
-    <row r="112" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B112" s="58"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
@@ -9372,7 +10049,8 @@
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
     </row>
-    <row r="113" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B113" s="59"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
@@ -9394,7 +10072,8 @@
       <c r="AM113" s="18"/>
       <c r="AN113" s="18"/>
     </row>
-    <row r="114" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B114" s="58"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
@@ -9416,7 +10095,8 @@
       <c r="AM114" s="18"/>
       <c r="AN114" s="18"/>
     </row>
-    <row r="115" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B115" s="59"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
@@ -9438,7 +10118,8 @@
       <c r="AM115" s="18"/>
       <c r="AN115" s="18"/>
     </row>
-    <row r="116" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B116" s="58"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
@@ -9460,7 +10141,8 @@
       <c r="AM116" s="18"/>
       <c r="AN116" s="18"/>
     </row>
-    <row r="117" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B117" s="59"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
@@ -9482,7 +10164,8 @@
       <c r="AM117" s="18"/>
       <c r="AN117" s="18"/>
     </row>
-    <row r="118" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B118" s="60"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
@@ -9504,36 +10187,34 @@
       <c r="AM118" s="18"/>
       <c r="AN118" s="18"/>
     </row>
-    <row r="119" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
     </row>
-    <row r="121" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
     </row>
-    <row r="122" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="B17:B91"/>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="D2:AO5"/>
-    <mergeCell ref="D6:AO6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -9544,78 +10225,150 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="D2:AO5"/>
+    <mergeCell ref="D6:AO6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="AN1 AN7:AN1048576">
-    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="29" operator="equal">
       <formula>"FALLIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="30" operator="equal">
       <formula>"EXITOSO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC18:AC1048576">
-    <cfRule type="expression" dxfId="52" priority="14">
+  <conditionalFormatting sqref="AC18:AC21 AC23:AC1048576">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>$AB18&lt;&gt;$AC18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE18:AE1048576">
-    <cfRule type="expression" dxfId="51" priority="13">
+  <conditionalFormatting sqref="AE18:AE21 AE23:AE1048576">
+    <cfRule type="expression" dxfId="65" priority="27">
       <formula>$AD18&lt;&gt;$AE18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG18:AG1048576">
-    <cfRule type="expression" dxfId="50" priority="12">
-      <formula>$AD18&lt;&gt;$AE18</formula>
+  <conditionalFormatting sqref="AG18:AG21 AG23:AG1048576">
+    <cfRule type="expression" dxfId="64" priority="26">
+      <formula>$AF18&lt;&gt;$AG18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI18:AI1048576">
-    <cfRule type="expression" dxfId="49" priority="11">
-      <formula>$AD18&lt;&gt;$AE18</formula>
+  <conditionalFormatting sqref="AI18:AI21 AI23:AI1048576">
+    <cfRule type="expression" dxfId="63" priority="25">
+      <formula>$AH18&lt;&gt;$AI18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AK1048576">
-    <cfRule type="expression" dxfId="48" priority="10">
-      <formula>$AD18&lt;&gt;$AE18</formula>
+  <conditionalFormatting sqref="AK18:AK21 AK23:AK1048576">
+    <cfRule type="expression" dxfId="62" priority="24">
+      <formula>$AJ18&lt;&gt;$AK18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM18:AM1048576">
-    <cfRule type="expression" dxfId="47" priority="9">
-      <formula>$AD18&lt;&gt;$AE18</formula>
+  <conditionalFormatting sqref="AM18:AM21 AM23:AM1048576">
+    <cfRule type="expression" dxfId="61" priority="23">
+      <formula>$AL18&lt;&gt;$AM18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O1048576">
-    <cfRule type="expression" dxfId="46" priority="7">
+  <conditionalFormatting sqref="O18:O21 O23:O1048576">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$O18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q1048576">
-    <cfRule type="expression" dxfId="45" priority="6">
+  <conditionalFormatting sqref="Q18:Q21 Q23:Q1048576">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$Q$18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S1048576">
-    <cfRule type="expression" dxfId="44" priority="5">
+  <conditionalFormatting sqref="S18:S21 S23:S1048576">
+    <cfRule type="expression" dxfId="58" priority="19">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$S$18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U18:U1048576">
-    <cfRule type="expression" dxfId="43" priority="4">
+  <conditionalFormatting sqref="U18:U21 U23:U1048576">
+    <cfRule type="expression" dxfId="57" priority="18">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$U$18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18:W1048576">
-    <cfRule type="expression" dxfId="42" priority="3">
+  <conditionalFormatting sqref="W18:W21 W23:W1048576">
+    <cfRule type="expression" dxfId="56" priority="17">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$W$18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y18:Y1048576">
-    <cfRule type="expression" dxfId="41" priority="2">
+  <conditionalFormatting sqref="Y18:Y21 Y23:Y1048576">
+    <cfRule type="expression" dxfId="55" priority="16">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$Y$18))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA18:AA1048576">
-    <cfRule type="expression" dxfId="40" priority="1">
+  <conditionalFormatting sqref="AA18:AA21 AA23:AA1048576">
+    <cfRule type="expression" dxfId="54" priority="15">
       <formula>ISNUMBER(SEARCH("INCORRECTO",$AA$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$AB22&lt;&gt;$AC22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$AD22&lt;&gt;$AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$AF22&lt;&gt;$AG22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$AH22&lt;&gt;$AI22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$AJ22&lt;&gt;$AK22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$AL22&lt;&gt;$AM22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$O22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$Q$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$U$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$W$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$Y$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA22">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$AA$18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISNUMBER(SEARCH("INCORRECTO",$R$18))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="814" yWindow="560" count="40">
@@ -9628,11 +10381,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G118">
       <formula1>"Interredes,TPVs,Camara,Corresponsal,Banco,CEL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsables de ejecucion" prompt="Indicar el Nombre de (o de los) responsables (s) de la Ejecucion. _x000a__x000a_(Nombre de Personal de Plataforma Línea)" sqref="C13:F13"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Periodo de Pruebas" prompt="Indicar el periodo en el cual fue construida esta matriz de pruebas._x000a__x000a_Nota: Debera coincidir con los limites de fechas de los Timestamp de la ejecucion de los casos._x000a__x000a_p.e _x000a_ - Febrero 2022 - Marzo 2022" sqref="C11:F11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ambiente de Ejecucion" prompt="Indicar en que Ambiente  (Nombre Plataforma [IP + Identificador de Ambiente]) se realizaron las pruebas._x000a_p.e_x000a_ - POS 3.4 [ 172.29.40.10 (Candy) ]_x000a_ - EVO 4.5 [ 172.29.40.148 (Goku) ]_x000a_ - BBVALatam 4.5 [ 172.29.40.46 (Integración) ]" sqref="C10:F10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre Proyecto" prompt="Mencionar el Nombre con el cual fue dado de alta el Proyecto por la Oficina de Proyectos (Referencia JIRA)." sqref="C9:F9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID Proyecto" prompt="Indicar el ID del Proyecto, Incidente, Problema que atienda algun desarrollo implementado por la Plataforma Línea (Referencia JIRA)." sqref="C8:F8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsables de ejecucion" prompt="Indicar el Nombre de (o de los) responsables (s) de la Ejecucion. _x000a__x000a_(Nombre de Personal de Plataforma Línea)" sqref="B13:F13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Periodo de Pruebas" prompt="Indicar el periodo en el cual fue construida esta matriz de pruebas._x000a__x000a_Nota: Debera coincidir con los limites de fechas de los Timestamp de la ejecucion de los casos._x000a__x000a_p.e _x000a_ - Febrero 2022 - Marzo 2022" sqref="B11:F11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ambiente de Ejecucion" prompt="Indicar en que Ambiente  (Nombre Plataforma [IP + Identificador de Ambiente]) se realizaron las pruebas._x000a_p.e_x000a_ - POS 3.4 [ 172.29.40.10 (Candy) ]_x000a_ - EVO 4.5 [ 172.29.40.148 (Goku) ]_x000a_ - BBVALatam 4.5 [ 172.29.40.46 (Integración) ]" sqref="B10:F10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre Proyecto" prompt="Mencionar el Nombre con el cual fue dado de alta el Proyecto por la Oficina de Proyectos (Referencia JIRA)." sqref="B9:F9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID Proyecto" prompt="Indicar el ID del Proyecto, Incidente, Problema que atienda algun desarrollo implementado por la Plataforma Línea (Referencia JIRA)." sqref="B8:F8"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó Registro DESC" prompt="Indicar si se generó Registro DESC y en caso de aplicar Indicar si se generó un registro Adicional en especifico._x000a_p.e._x000a_ - SI - AD14(Contactless)_x000a_ - SI - AD03(EMV), AD06(Marcas)._x000a_ - NO" sqref="AM17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dictamen de Caso" prompt="Indicar si  fue Exitoso el RESULTADO ESPERADO coincide con el RESULTADO REAL, en caso de que no inidcar como Fallido._x000a__x000a_Posibles Valores:_x000a_ - EXITOSO_x000a_ - FALLIDO" sqref="AN17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grabó TRL_LOG" prompt="Indicar si se grabó la Transaccion en el Transaction Log o No_x000a__x000a_Posibles Valores:_x000a_ - SI_x000a_ - NO" sqref="AK17"/>
@@ -9658,8 +10411,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de Comercio o Entidad Adq" prompt="Especificar el nombre del Comercio o Entidad Adquirente._x000a_p.e._x000a_ - BBVA OpenPay_x000a_ - EVO WorldPay_x000a_ - PROSA_x000a_ - VISA_x000a_ - MasterCard" sqref="H17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo Operativa" prompt="Identifica el tipo de Operativa que será tomada para este caso de prueba._x000a_Posibles Valores:_x000a_-Interredes (POS)_x000a_-TPVs (POS)_x000a_-Camara (POS Y ATMs)_x000a_-Corresponsal (POS, Corresponsales Banamex)_x000a_-Banco (ATM)_x000a_-CEL (Cobranza en Linea)" sqref="G17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Prueba" prompt="Distinguir el Tipo de Prueba que abordara el caso._x000a_Posibles Valores:_x000a_-Validacion de Flujo_x000a_-No Afectacion_x000a_-Excepcion Flujo_x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="F17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID Caso" prompt="Valor basado en nomenclatura numerica consecutiva que tiene como finalidad identificar el caso de prueba._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="C17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsables de Casos" prompt="Indicar el Nombre de (o de los) responsables (s) del planteamineto de los Casos de Prueba _x000a__x000a_(Nombre de Personal de Plataforma Línea)" sqref="C12:F12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID Caso" prompt="Valor basado en nomenclatura numerica consecutiva que tiene como finalidad identificar el caso de prueba._x000a__x000a_Nota: Esta seccion debe ser llenada antes de ejecutar las pruebas." sqref="B17:C17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsables de Casos" prompt="Indicar el Nombre de (o de los) responsables (s) del planteamineto de los Casos de Prueba _x000a__x000a_(Nombre de Personal de Plataforma Línea)" sqref="B12:F12"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F118">
       <formula1>"Validacion de Flujo,No Afectacion,Excepcion Flujo"</formula1>
     </dataValidation>
